--- a/Solina/Production/Input/Concatenated_Hourly_GHI.xlsx
+++ b/Solina/Production/Input/Concatenated_Hourly_GHI.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/Solina/Production/Input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDA233CE5D07644040F9140CAB60F1D3F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BA5D765-2C02-4070-A354-9C55EB384A7E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="275">
   <si>
     <t>lat</t>
   </si>
@@ -98,6 +79,18 @@
     <t>2024-02-12T07:33:46</t>
   </si>
   <si>
+    <t>2024-02-13T07:32:16</t>
+  </si>
+  <si>
+    <t>2024-02-14T07:30:44</t>
+  </si>
+  <si>
+    <t>2024-02-15T07:29:11</t>
+  </si>
+  <si>
+    <t>2024-02-16T07:27:37</t>
+  </si>
+  <si>
     <t>2024-02-07T17:39:08</t>
   </si>
   <si>
@@ -116,6 +109,18 @@
     <t>2024-02-12T17:46:36</t>
   </si>
   <si>
+    <t>2024-02-13T17:48:05</t>
+  </si>
+  <si>
+    <t>2024-02-14T17:49:34</t>
+  </si>
+  <si>
+    <t>2024-02-15T17:51:03</t>
+  </si>
+  <si>
+    <t>2024-02-16T17:52:32</t>
+  </si>
+  <si>
     <t>07.02.20240</t>
   </si>
   <si>
@@ -546,16 +551,304 @@
   </si>
   <si>
     <t>12.02.202423</t>
+  </si>
+  <si>
+    <t>13.02.20240</t>
+  </si>
+  <si>
+    <t>13.02.20241</t>
+  </si>
+  <si>
+    <t>13.02.20242</t>
+  </si>
+  <si>
+    <t>13.02.20243</t>
+  </si>
+  <si>
+    <t>13.02.20244</t>
+  </si>
+  <si>
+    <t>13.02.20245</t>
+  </si>
+  <si>
+    <t>13.02.20246</t>
+  </si>
+  <si>
+    <t>13.02.20247</t>
+  </si>
+  <si>
+    <t>13.02.20248</t>
+  </si>
+  <si>
+    <t>13.02.20249</t>
+  </si>
+  <si>
+    <t>13.02.202410</t>
+  </si>
+  <si>
+    <t>13.02.202411</t>
+  </si>
+  <si>
+    <t>13.02.202412</t>
+  </si>
+  <si>
+    <t>13.02.202413</t>
+  </si>
+  <si>
+    <t>13.02.202414</t>
+  </si>
+  <si>
+    <t>13.02.202415</t>
+  </si>
+  <si>
+    <t>13.02.202416</t>
+  </si>
+  <si>
+    <t>13.02.202417</t>
+  </si>
+  <si>
+    <t>13.02.202418</t>
+  </si>
+  <si>
+    <t>13.02.202419</t>
+  </si>
+  <si>
+    <t>13.02.202420</t>
+  </si>
+  <si>
+    <t>13.02.202421</t>
+  </si>
+  <si>
+    <t>13.02.202422</t>
+  </si>
+  <si>
+    <t>13.02.202423</t>
+  </si>
+  <si>
+    <t>14.02.20240</t>
+  </si>
+  <si>
+    <t>14.02.20241</t>
+  </si>
+  <si>
+    <t>14.02.20242</t>
+  </si>
+  <si>
+    <t>14.02.20243</t>
+  </si>
+  <si>
+    <t>14.02.20244</t>
+  </si>
+  <si>
+    <t>14.02.20245</t>
+  </si>
+  <si>
+    <t>14.02.20246</t>
+  </si>
+  <si>
+    <t>14.02.20247</t>
+  </si>
+  <si>
+    <t>14.02.20248</t>
+  </si>
+  <si>
+    <t>14.02.20249</t>
+  </si>
+  <si>
+    <t>14.02.202410</t>
+  </si>
+  <si>
+    <t>14.02.202411</t>
+  </si>
+  <si>
+    <t>14.02.202412</t>
+  </si>
+  <si>
+    <t>14.02.202413</t>
+  </si>
+  <si>
+    <t>14.02.202414</t>
+  </si>
+  <si>
+    <t>14.02.202415</t>
+  </si>
+  <si>
+    <t>14.02.202416</t>
+  </si>
+  <si>
+    <t>14.02.202417</t>
+  </si>
+  <si>
+    <t>14.02.202418</t>
+  </si>
+  <si>
+    <t>14.02.202419</t>
+  </si>
+  <si>
+    <t>14.02.202420</t>
+  </si>
+  <si>
+    <t>14.02.202421</t>
+  </si>
+  <si>
+    <t>14.02.202422</t>
+  </si>
+  <si>
+    <t>14.02.202423</t>
+  </si>
+  <si>
+    <t>15.02.20240</t>
+  </si>
+  <si>
+    <t>15.02.20241</t>
+  </si>
+  <si>
+    <t>15.02.20242</t>
+  </si>
+  <si>
+    <t>15.02.20243</t>
+  </si>
+  <si>
+    <t>15.02.20244</t>
+  </si>
+  <si>
+    <t>15.02.20245</t>
+  </si>
+  <si>
+    <t>15.02.20246</t>
+  </si>
+  <si>
+    <t>15.02.20247</t>
+  </si>
+  <si>
+    <t>15.02.20248</t>
+  </si>
+  <si>
+    <t>15.02.20249</t>
+  </si>
+  <si>
+    <t>15.02.202410</t>
+  </si>
+  <si>
+    <t>15.02.202411</t>
+  </si>
+  <si>
+    <t>15.02.202412</t>
+  </si>
+  <si>
+    <t>15.02.202413</t>
+  </si>
+  <si>
+    <t>15.02.202414</t>
+  </si>
+  <si>
+    <t>15.02.202415</t>
+  </si>
+  <si>
+    <t>15.02.202416</t>
+  </si>
+  <si>
+    <t>15.02.202417</t>
+  </si>
+  <si>
+    <t>15.02.202418</t>
+  </si>
+  <si>
+    <t>15.02.202419</t>
+  </si>
+  <si>
+    <t>15.02.202420</t>
+  </si>
+  <si>
+    <t>15.02.202421</t>
+  </si>
+  <si>
+    <t>15.02.202422</t>
+  </si>
+  <si>
+    <t>15.02.202423</t>
+  </si>
+  <si>
+    <t>16.02.20240</t>
+  </si>
+  <si>
+    <t>16.02.20241</t>
+  </si>
+  <si>
+    <t>16.02.20242</t>
+  </si>
+  <si>
+    <t>16.02.20243</t>
+  </si>
+  <si>
+    <t>16.02.20244</t>
+  </si>
+  <si>
+    <t>16.02.20245</t>
+  </si>
+  <si>
+    <t>16.02.20246</t>
+  </si>
+  <si>
+    <t>16.02.20247</t>
+  </si>
+  <si>
+    <t>16.02.20248</t>
+  </si>
+  <si>
+    <t>16.02.20249</t>
+  </si>
+  <si>
+    <t>16.02.202410</t>
+  </si>
+  <si>
+    <t>16.02.202411</t>
+  </si>
+  <si>
+    <t>16.02.202412</t>
+  </si>
+  <si>
+    <t>16.02.202413</t>
+  </si>
+  <si>
+    <t>16.02.202414</t>
+  </si>
+  <si>
+    <t>16.02.202415</t>
+  </si>
+  <si>
+    <t>16.02.202416</t>
+  </si>
+  <si>
+    <t>16.02.202417</t>
+  </si>
+  <si>
+    <t>16.02.202418</t>
+  </si>
+  <si>
+    <t>16.02.202419</t>
+  </si>
+  <si>
+    <t>16.02.202420</t>
+  </si>
+  <si>
+    <t>16.02.202421</t>
+  </si>
+  <si>
+    <t>16.02.202422</t>
+  </si>
+  <si>
+    <t>16.02.202423</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,21 +912,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -671,7 +956,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -705,7 +990,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -740,10 +1024,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -916,19 +1199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,9 +1250,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B2">
         <v>23.580489</v>
@@ -989,7 +1267,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1013,12 +1291,12 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B3">
         <v>23.580489</v>
@@ -1033,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1057,12 +1335,12 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B4">
         <v>23.580489</v>
@@ -1077,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1101,12 +1379,12 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B5">
         <v>23.580489</v>
@@ -1121,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1145,12 +1423,12 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B6">
         <v>23.580489</v>
@@ -1165,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1189,12 +1467,12 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B7">
         <v>23.580489</v>
@@ -1209,7 +1487,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1233,12 +1511,12 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B8">
         <v>23.580489</v>
@@ -1253,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1277,12 +1555,12 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B9">
         <v>23.580489</v>
@@ -1297,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -1321,12 +1599,12 @@
         <v>0.43</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B10">
         <v>23.580489</v>
@@ -1341,7 +1619,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1365,12 +1643,12 @@
         <v>20.78</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B11">
         <v>23.580489</v>
@@ -1385,7 +1663,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -1397,7 +1675,7 @@
         <v>605.21</v>
       </c>
       <c r="J11">
-        <v>68.290000000000006</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="K11">
         <v>54.76</v>
@@ -1409,12 +1687,12 @@
         <v>54.76</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B12">
         <v>23.580489</v>
@@ -1429,7 +1707,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -1438,7 +1716,7 @@
         <v>342.24</v>
       </c>
       <c r="I12">
-        <v>715.18</v>
+        <v>715.1799999999999</v>
       </c>
       <c r="J12">
         <v>83.05</v>
@@ -1453,12 +1731,12 @@
         <v>85.56</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B13">
         <v>23.580489</v>
@@ -1473,7 +1751,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1497,12 +1775,12 @@
         <v>106.74</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B14">
         <v>23.580489</v>
@@ -1517,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -1541,12 +1819,12 @@
         <v>115.62</v>
       </c>
       <c r="N14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B15">
         <v>23.580489</v>
@@ -1561,7 +1839,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -1585,12 +1863,12 @@
         <v>111.16</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B16">
         <v>23.580489</v>
@@ -1605,7 +1883,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -1629,12 +1907,12 @@
         <v>93.88</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B17">
         <v>23.580489</v>
@@ -1649,7 +1927,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -1661,7 +1939,7 @@
         <v>650.97</v>
       </c>
       <c r="J17">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K17">
         <v>65.87</v>
@@ -1673,12 +1951,12 @@
         <v>65.87</v>
       </c>
       <c r="N17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B18">
         <v>23.580489</v>
@@ -1693,7 +1971,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -1717,12 +1995,12 @@
         <v>31.39</v>
       </c>
       <c r="N18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B19">
         <v>23.580489</v>
@@ -1737,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -1761,12 +2039,12 @@
         <v>3.32</v>
       </c>
       <c r="N19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B20">
         <v>23.580489</v>
@@ -1781,7 +2059,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G20">
         <v>18</v>
@@ -1805,12 +2083,12 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B21">
         <v>23.580489</v>
@@ -1825,7 +2103,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -1849,12 +2127,12 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B22">
         <v>23.580489</v>
@@ -1869,7 +2147,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -1893,12 +2171,12 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B23">
         <v>23.580489</v>
@@ -1913,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <v>21</v>
@@ -1937,12 +2215,12 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B24">
         <v>23.580489</v>
@@ -1957,7 +2235,7 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <v>22</v>
@@ -1981,12 +2259,12 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B25">
         <v>23.580489</v>
@@ -2001,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -2025,12 +2303,12 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B26">
         <v>23.580489</v>
@@ -2045,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2069,12 +2347,12 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B27">
         <v>23.580489</v>
@@ -2089,7 +2367,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2113,12 +2391,12 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B28">
         <v>23.580489</v>
@@ -2133,7 +2411,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2157,12 +2435,12 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B29">
         <v>23.580489</v>
@@ -2177,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2201,12 +2479,12 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B30">
         <v>23.580489</v>
@@ -2221,7 +2499,7 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -2245,12 +2523,12 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B31">
         <v>23.580489</v>
@@ -2265,7 +2543,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -2289,12 +2567,12 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B32">
         <v>23.580489</v>
@@ -2309,7 +2587,7 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -2333,12 +2611,12 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B33">
         <v>23.580489</v>
@@ -2353,7 +2631,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -2377,12 +2655,12 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B34">
         <v>23.580489</v>
@@ -2397,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G34">
         <v>8</v>
@@ -2421,12 +2699,12 @@
         <v>31.96</v>
       </c>
       <c r="N34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B35">
         <v>23.580489</v>
@@ -2441,7 +2719,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G35">
         <v>9</v>
@@ -2450,7 +2728,7 @@
         <v>223.66</v>
       </c>
       <c r="I35">
-        <v>610.44000000000005</v>
+        <v>610.4400000000001</v>
       </c>
       <c r="J35">
         <v>68.87</v>
@@ -2465,12 +2743,12 @@
         <v>60.34</v>
       </c>
       <c r="N35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B36">
         <v>23.580489</v>
@@ -2485,7 +2763,7 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -2509,12 +2787,12 @@
         <v>106.39</v>
       </c>
       <c r="N36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B37">
         <v>23.580489</v>
@@ -2529,7 +2807,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G37">
         <v>11</v>
@@ -2538,7 +2816,7 @@
         <v>432.43</v>
       </c>
       <c r="I37">
-        <v>772.43</v>
+        <v>772.4299999999999</v>
       </c>
       <c r="J37">
         <v>91.64</v>
@@ -2553,12 +2831,12 @@
         <v>145.31</v>
       </c>
       <c r="N37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B38">
         <v>23.580489</v>
@@ -2573,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G38">
         <v>12</v>
@@ -2585,7 +2863,7 @@
         <v>791.67</v>
       </c>
       <c r="J38">
-        <v>94.71</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="K38">
         <v>172.29</v>
@@ -2597,12 +2875,12 @@
         <v>169.54</v>
       </c>
       <c r="N38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B39">
         <v>23.580489</v>
@@ -2617,7 +2895,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G39">
         <v>13</v>
@@ -2626,7 +2904,7 @@
         <v>450.24</v>
       </c>
       <c r="I39">
-        <v>782.32</v>
+        <v>782.3200000000001</v>
       </c>
       <c r="J39">
         <v>93.17</v>
@@ -2641,12 +2919,12 @@
         <v>166.83</v>
       </c>
       <c r="N39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B40">
         <v>23.580489</v>
@@ -2661,7 +2939,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G40">
         <v>14</v>
@@ -2685,12 +2963,12 @@
         <v>152.76</v>
       </c>
       <c r="N40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B41">
         <v>23.580489</v>
@@ -2705,7 +2983,7 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G41">
         <v>15</v>
@@ -2729,12 +3007,12 @@
         <v>128.49</v>
       </c>
       <c r="N41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B42">
         <v>23.580489</v>
@@ -2749,7 +3027,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G42">
         <v>16</v>
@@ -2764,7 +3042,7 @@
         <v>53.52</v>
       </c>
       <c r="K42">
-        <v>96.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L42">
         <v>168.77</v>
@@ -2773,12 +3051,12 @@
         <v>66.88</v>
       </c>
       <c r="N42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B43">
         <v>23.580489</v>
@@ -2793,7 +3071,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G43">
         <v>17</v>
@@ -2817,12 +3095,12 @@
         <v>10.45</v>
       </c>
       <c r="N43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B44">
         <v>23.580489</v>
@@ -2837,7 +3115,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>18</v>
@@ -2861,12 +3139,12 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B45">
         <v>23.580489</v>
@@ -2881,7 +3159,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>19</v>
@@ -2905,12 +3183,12 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B46">
         <v>23.580489</v>
@@ -2925,7 +3203,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -2949,12 +3227,12 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B47">
         <v>23.580489</v>
@@ -2969,7 +3247,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G47">
         <v>21</v>
@@ -2993,12 +3271,12 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B48">
         <v>23.580489</v>
@@ -3013,7 +3291,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G48">
         <v>22</v>
@@ -3037,12 +3315,12 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B49">
         <v>23.580489</v>
@@ -3057,7 +3335,7 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G49">
         <v>23</v>
@@ -3081,12 +3359,12 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B50">
         <v>23.580489</v>
@@ -3101,7 +3379,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3125,12 +3403,12 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B51">
         <v>23.580489</v>
@@ -3145,7 +3423,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3169,12 +3447,12 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B52">
         <v>23.580489</v>
@@ -3189,7 +3467,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3213,12 +3491,12 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B53">
         <v>23.580489</v>
@@ -3233,7 +3511,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -3257,12 +3535,12 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B54">
         <v>23.580489</v>
@@ -3277,7 +3555,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -3301,12 +3579,12 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B55">
         <v>23.580489</v>
@@ -3321,7 +3599,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -3345,12 +3623,12 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B56">
         <v>23.580489</v>
@@ -3365,7 +3643,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -3389,12 +3667,12 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B57">
         <v>23.580489</v>
@@ -3409,7 +3687,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -3418,27 +3696,27 @@
         <v>2.48</v>
       </c>
       <c r="I57">
-        <v>22.28</v>
+        <v>22.27</v>
       </c>
       <c r="J57">
         <v>3.97</v>
       </c>
       <c r="K57">
-        <v>2.0499999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>2.0499999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="N57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B58">
         <v>23.580489</v>
@@ -3453,36 +3731,36 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G58">
         <v>8</v>
       </c>
       <c r="H58">
-        <v>86.79</v>
+        <v>86.78</v>
       </c>
       <c r="I58">
-        <v>383.27</v>
+        <v>383.2</v>
       </c>
       <c r="J58">
         <v>43.74</v>
       </c>
       <c r="K58">
-        <v>50.84</v>
+        <v>24.48</v>
       </c>
       <c r="L58">
-        <v>37.4</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>46.82</v>
+        <v>24.48</v>
       </c>
       <c r="N58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B59">
         <v>23.580489</v>
@@ -3497,36 +3775,36 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G59">
         <v>9</v>
       </c>
       <c r="H59">
-        <v>228.45</v>
+        <v>228.42</v>
       </c>
       <c r="I59">
-        <v>615.89</v>
+        <v>615.79</v>
       </c>
       <c r="J59">
-        <v>69.45</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="K59">
-        <v>78.510000000000005</v>
+        <v>61.64</v>
       </c>
       <c r="L59">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>78.099999999999994</v>
+        <v>61.64</v>
       </c>
       <c r="N59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B60">
         <v>23.580489</v>
@@ -3541,36 +3819,36 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G60">
         <v>10</v>
       </c>
       <c r="H60">
-        <v>352.69</v>
+        <v>352.66</v>
       </c>
       <c r="I60">
-        <v>722.84</v>
+        <v>722.74</v>
       </c>
       <c r="J60">
-        <v>83.96</v>
+        <v>83.97</v>
       </c>
       <c r="K60">
-        <v>154.08000000000001</v>
+        <v>102.45</v>
       </c>
       <c r="L60">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>147.9</v>
+        <v>102.45</v>
       </c>
       <c r="N60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B61">
         <v>23.580489</v>
@@ -3585,36 +3863,36 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G61">
         <v>11</v>
       </c>
       <c r="H61">
-        <v>438.04</v>
+        <v>438</v>
       </c>
       <c r="I61">
-        <v>775.78</v>
+        <v>775.6799999999999</v>
       </c>
       <c r="J61">
-        <v>92.01</v>
+        <v>92.03</v>
       </c>
       <c r="K61">
-        <v>168.54</v>
+        <v>121.94</v>
       </c>
       <c r="L61">
-        <v>7.71</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>165.05</v>
+        <v>121.94</v>
       </c>
       <c r="N61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B62">
         <v>23.580489</v>
@@ -3629,36 +3907,36 @@
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G62">
         <v>12</v>
       </c>
       <c r="H62">
-        <v>473.83</v>
+        <v>473.78</v>
       </c>
       <c r="I62">
-        <v>794.89</v>
+        <v>794.74</v>
       </c>
       <c r="J62">
-        <v>95.05</v>
+        <v>95.08</v>
       </c>
       <c r="K62">
-        <v>168.27</v>
+        <v>128.88</v>
       </c>
       <c r="L62">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>166.36</v>
+        <v>128.88</v>
       </c>
       <c r="N62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B63">
         <v>23.580489</v>
@@ -3673,36 +3951,36 @@
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G63">
         <v>13</v>
       </c>
       <c r="H63">
-        <v>456.01</v>
+        <v>455.95</v>
       </c>
       <c r="I63">
-        <v>785.7</v>
+        <v>785.53</v>
       </c>
       <c r="J63">
-        <v>93.53</v>
+        <v>93.56</v>
       </c>
       <c r="K63">
-        <v>153.36000000000001</v>
+        <v>122.13</v>
       </c>
       <c r="L63">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>153.02000000000001</v>
+        <v>122.13</v>
       </c>
       <c r="N63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B64">
         <v>23.580489</v>
@@ -3717,36 +3995,36 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G64">
         <v>14</v>
       </c>
       <c r="H64">
-        <v>386.55</v>
+        <v>386.5</v>
       </c>
       <c r="I64">
-        <v>745.54</v>
+        <v>745.39</v>
       </c>
       <c r="J64">
-        <v>87.25</v>
+        <v>87.27</v>
       </c>
       <c r="K64">
-        <v>115.93</v>
+        <v>100.55</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64">
-        <v>115.93</v>
+        <v>100.55</v>
       </c>
       <c r="N64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B65">
         <v>23.580489</v>
@@ -3761,36 +4039,36 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G65">
         <v>15</v>
       </c>
       <c r="H65">
-        <v>273.76</v>
+        <v>273.73</v>
       </c>
       <c r="I65">
-        <v>660.83</v>
+        <v>660.6799999999999</v>
       </c>
       <c r="J65">
-        <v>75.19</v>
+        <v>75.2</v>
       </c>
       <c r="K65">
-        <v>68.44</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>68.44</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="N65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B66">
         <v>23.580489</v>
@@ -3805,36 +4083,36 @@
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G66">
         <v>16</v>
       </c>
       <c r="H66">
-        <v>134.31</v>
+        <v>134.28</v>
       </c>
       <c r="I66">
-        <v>486.69</v>
+        <v>486.5</v>
       </c>
       <c r="J66">
         <v>54.31</v>
       </c>
       <c r="K66">
-        <v>33.58</v>
+        <v>33.57</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>33.58</v>
+        <v>33.57</v>
       </c>
       <c r="N66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B67">
         <v>23.580489</v>
@@ -3849,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G67">
         <v>17</v>
@@ -3858,27 +4136,27 @@
         <v>16.22</v>
       </c>
       <c r="I67">
-        <v>107.33</v>
+        <v>107.24</v>
       </c>
       <c r="J67">
         <v>13.76</v>
       </c>
       <c r="K67">
-        <v>4.0599999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>4.0599999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="N67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B68">
         <v>23.580489</v>
@@ -3893,7 +4171,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G68">
         <v>18</v>
@@ -3917,12 +4195,12 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B69">
         <v>23.580489</v>
@@ -3937,7 +4215,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G69">
         <v>19</v>
@@ -3961,12 +4239,12 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B70">
         <v>23.580489</v>
@@ -3981,7 +4259,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G70">
         <v>20</v>
@@ -4005,12 +4283,12 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B71">
         <v>23.580489</v>
@@ -4025,7 +4303,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G71">
         <v>21</v>
@@ -4049,12 +4327,12 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B72">
         <v>23.580489</v>
@@ -4069,7 +4347,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G72">
         <v>22</v>
@@ -4093,12 +4371,12 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B73">
         <v>23.580489</v>
@@ -4113,7 +4391,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G73">
         <v>23</v>
@@ -4137,12 +4415,12 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B74">
         <v>23.580489</v>
@@ -4157,7 +4435,7 @@
         <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4181,12 +4459,12 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B75">
         <v>23.580489</v>
@@ -4201,7 +4479,7 @@
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -4225,12 +4503,12 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B76">
         <v>23.580489</v>
@@ -4245,7 +4523,7 @@
         <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -4269,12 +4547,12 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B77">
         <v>23.580489</v>
@@ -4289,7 +4567,7 @@
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -4313,12 +4591,12 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B78">
         <v>23.580489</v>
@@ -4333,7 +4611,7 @@
         <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -4357,12 +4635,12 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B79">
         <v>23.580489</v>
@@ -4377,7 +4655,7 @@
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -4401,12 +4679,12 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B80">
         <v>23.580489</v>
@@ -4421,7 +4699,7 @@
         <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G80">
         <v>6</v>
@@ -4445,12 +4723,12 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B81">
         <v>23.580489</v>
@@ -4465,7 +4743,7 @@
         <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G81">
         <v>7</v>
@@ -4474,7 +4752,7 @@
         <v>3.01</v>
       </c>
       <c r="I81">
-        <v>26.37</v>
+        <v>26.35</v>
       </c>
       <c r="J81">
         <v>4.37</v>
@@ -4489,12 +4767,12 @@
         <v>0.75</v>
       </c>
       <c r="N81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B82">
         <v>23.580489</v>
@@ -4509,36 +4787,36 @@
         <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G82">
         <v>8</v>
       </c>
       <c r="H82">
-        <v>90.58</v>
+        <v>90.56999999999999</v>
       </c>
       <c r="I82">
-        <v>393.1</v>
+        <v>392.99</v>
       </c>
       <c r="J82">
-        <v>44.68</v>
+        <v>44.69</v>
       </c>
       <c r="K82">
-        <v>22.65</v>
+        <v>22.64</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
       <c r="M82">
-        <v>22.65</v>
+        <v>22.64</v>
       </c>
       <c r="N82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B83">
         <v>23.580489</v>
@@ -4553,19 +4831,19 @@
         <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G83">
         <v>9</v>
       </c>
       <c r="H83">
-        <v>233.25</v>
+        <v>233.23</v>
       </c>
       <c r="I83">
-        <v>621</v>
+        <v>620.88</v>
       </c>
       <c r="J83">
-        <v>70.05</v>
+        <v>70.06</v>
       </c>
       <c r="K83">
         <v>58.31</v>
@@ -4577,12 +4855,12 @@
         <v>58.31</v>
       </c>
       <c r="N83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B84">
         <v>23.580489</v>
@@ -4597,36 +4875,36 @@
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G84">
         <v>10</v>
       </c>
       <c r="H84">
-        <v>357.98</v>
+        <v>357.93</v>
       </c>
       <c r="I84">
-        <v>726.43</v>
+        <v>726.28</v>
       </c>
       <c r="J84">
-        <v>84.44</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="K84">
-        <v>89.49</v>
+        <v>89.48</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>89.49</v>
+        <v>89.48</v>
       </c>
       <c r="N84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B85">
         <v>23.580489</v>
@@ -4641,36 +4919,36 @@
         <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G85">
         <v>11</v>
       </c>
       <c r="H85">
-        <v>443.59</v>
+        <v>443.53</v>
       </c>
       <c r="I85">
-        <v>778.75</v>
+        <v>778.59</v>
       </c>
       <c r="J85">
-        <v>92.44</v>
+        <v>92.47</v>
       </c>
       <c r="K85">
-        <v>110.9</v>
+        <v>110.88</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>110.9</v>
+        <v>110.88</v>
       </c>
       <c r="N85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B86">
         <v>23.580489</v>
@@ -4685,36 +4963,36 @@
         <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G86">
         <v>12</v>
       </c>
       <c r="H86">
-        <v>479.49</v>
+        <v>479.44</v>
       </c>
       <c r="I86">
-        <v>797.61</v>
+        <v>797.47</v>
       </c>
       <c r="J86">
-        <v>95.48</v>
+        <v>95.5</v>
       </c>
       <c r="K86">
-        <v>119.87</v>
+        <v>119.86</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>119.87</v>
+        <v>119.86</v>
       </c>
       <c r="N86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B87">
         <v>23.580489</v>
@@ -4729,19 +5007,19 @@
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G87">
         <v>13</v>
       </c>
       <c r="H87">
-        <v>461.62</v>
+        <v>461.59</v>
       </c>
       <c r="I87">
-        <v>788.47</v>
+        <v>788.38</v>
       </c>
       <c r="J87">
-        <v>93.98</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="K87">
         <v>115.4</v>
@@ -4753,12 +5031,12 @@
         <v>115.4</v>
       </c>
       <c r="N87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B88">
         <v>23.580489</v>
@@ -4773,36 +5051,36 @@
         <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G88">
         <v>14</v>
       </c>
       <c r="H88">
-        <v>391.97</v>
+        <v>391.95</v>
       </c>
       <c r="I88">
-        <v>748.73</v>
+        <v>748.65</v>
       </c>
       <c r="J88">
-        <v>87.74</v>
+        <v>87.75</v>
       </c>
       <c r="K88">
-        <v>97.99</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>97.99</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="N88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B89">
         <v>23.580489</v>
@@ -4817,36 +5095,36 @@
         <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G89">
         <v>15</v>
       </c>
       <c r="H89">
-        <v>278.83</v>
+        <v>278.8</v>
       </c>
       <c r="I89">
-        <v>665.12</v>
+        <v>665</v>
       </c>
       <c r="J89">
-        <v>75.77</v>
+        <v>75.79000000000001</v>
       </c>
       <c r="K89">
-        <v>69.709999999999994</v>
+        <v>69.7</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>69.709999999999994</v>
+        <v>69.7</v>
       </c>
       <c r="N89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B90">
         <v>23.580489</v>
@@ -4861,36 +5139,36 @@
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G90">
         <v>16</v>
       </c>
       <c r="H90">
-        <v>138.66</v>
+        <v>138.64</v>
       </c>
       <c r="I90">
-        <v>494.1</v>
+        <v>493.97</v>
       </c>
       <c r="J90">
-        <v>55.12</v>
+        <v>55.13</v>
       </c>
       <c r="K90">
-        <v>34.659999999999997</v>
+        <v>34.66</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="M90">
-        <v>34.659999999999997</v>
+        <v>34.66</v>
       </c>
       <c r="N90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B91">
         <v>23.580489</v>
@@ -4905,7 +5183,7 @@
         <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G91">
         <v>17</v>
@@ -4914,27 +5192,27 @@
         <v>17.75</v>
       </c>
       <c r="I91">
-        <v>114.44</v>
+        <v>114.4</v>
       </c>
       <c r="J91">
         <v>14.41</v>
       </c>
       <c r="K91">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
       <c r="M91">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="N91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B92">
         <v>23.580489</v>
@@ -4949,7 +5227,7 @@
         <v>18</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G92">
         <v>18</v>
@@ -4973,12 +5251,12 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B93">
         <v>23.580489</v>
@@ -4993,7 +5271,7 @@
         <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G93">
         <v>19</v>
@@ -5017,12 +5295,12 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B94">
         <v>23.580489</v>
@@ -5037,7 +5315,7 @@
         <v>18</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G94">
         <v>20</v>
@@ -5061,12 +5339,12 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B95">
         <v>23.580489</v>
@@ -5081,7 +5359,7 @@
         <v>18</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G95">
         <v>21</v>
@@ -5105,12 +5383,12 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B96">
         <v>23.580489</v>
@@ -5125,7 +5403,7 @@
         <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G96">
         <v>22</v>
@@ -5149,12 +5427,12 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B97">
         <v>23.580489</v>
@@ -5169,7 +5447,7 @@
         <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G97">
         <v>23</v>
@@ -5193,12 +5471,12 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B98">
         <v>23.580489</v>
@@ -5213,7 +5491,7 @@
         <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5237,12 +5515,12 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B99">
         <v>23.580489</v>
@@ -5257,7 +5535,7 @@
         <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5281,12 +5559,12 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B100">
         <v>23.580489</v>
@@ -5301,7 +5579,7 @@
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -5325,12 +5603,12 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B101">
         <v>23.580489</v>
@@ -5345,7 +5623,7 @@
         <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -5369,12 +5647,12 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B102">
         <v>23.580489</v>
@@ -5389,7 +5667,7 @@
         <v>19</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>4</v>
@@ -5413,12 +5691,12 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B103">
         <v>23.580489</v>
@@ -5433,7 +5711,7 @@
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G103">
         <v>5</v>
@@ -5457,12 +5735,12 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B104">
         <v>23.580489</v>
@@ -5477,7 +5755,7 @@
         <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G104">
         <v>6</v>
@@ -5501,12 +5779,12 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B105">
         <v>23.580489</v>
@@ -5521,7 +5799,7 @@
         <v>19</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G105">
         <v>7</v>
@@ -5530,27 +5808,27 @@
         <v>3.59</v>
       </c>
       <c r="I105">
-        <v>30.47</v>
+        <v>30.52</v>
       </c>
       <c r="J105">
         <v>4.79</v>
       </c>
       <c r="K105">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="N105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B106">
         <v>23.580489</v>
@@ -5565,36 +5843,36 @@
         <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G106">
         <v>8</v>
       </c>
       <c r="H106">
-        <v>94.46</v>
+        <v>94.5</v>
       </c>
       <c r="I106">
-        <v>402.56</v>
+        <v>402.86</v>
       </c>
       <c r="J106">
-        <v>45.63</v>
+        <v>45.62</v>
       </c>
       <c r="K106">
-        <v>24.56</v>
+        <v>23.62</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>24.56</v>
+        <v>23.62</v>
       </c>
       <c r="N106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B107">
         <v>23.580489</v>
@@ -5609,36 +5887,36 @@
         <v>19</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>9</v>
       </c>
       <c r="H107">
-        <v>238.09</v>
+        <v>238.15</v>
       </c>
       <c r="I107">
-        <v>625.83000000000004</v>
+        <v>626.09</v>
       </c>
       <c r="J107">
-        <v>70.680000000000007</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="K107">
-        <v>61.03</v>
+        <v>59.54</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
       <c r="M107">
-        <v>61.03</v>
+        <v>59.54</v>
       </c>
       <c r="N107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B108">
         <v>23.580489</v>
@@ -5653,36 +5931,36 @@
         <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G108">
         <v>10</v>
       </c>
       <c r="H108">
-        <v>363.27</v>
+        <v>363.34</v>
       </c>
       <c r="I108">
-        <v>729.79</v>
+        <v>729.99</v>
       </c>
       <c r="J108">
-        <v>84.95</v>
+        <v>84.93000000000001</v>
       </c>
       <c r="K108">
-        <v>91.7</v>
+        <v>90.83</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
       <c r="M108">
-        <v>91.7</v>
+        <v>90.83</v>
       </c>
       <c r="N108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B109">
         <v>23.580489</v>
@@ -5697,36 +5975,36 @@
         <v>19</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G109">
         <v>11</v>
       </c>
       <c r="H109">
-        <v>449.15</v>
+        <v>449.21</v>
       </c>
       <c r="I109">
-        <v>781.53</v>
+        <v>781.7</v>
       </c>
       <c r="J109">
-        <v>92.9</v>
+        <v>92.88</v>
       </c>
       <c r="K109">
-        <v>112.29</v>
+        <v>112.3</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
       <c r="M109">
-        <v>112.29</v>
+        <v>112.3</v>
       </c>
       <c r="N109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B110">
         <v>23.580489</v>
@@ -5741,36 +6019,36 @@
         <v>19</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G110">
         <v>12</v>
       </c>
       <c r="H110">
-        <v>485.16</v>
+        <v>485.22</v>
       </c>
       <c r="I110">
-        <v>800.21</v>
+        <v>800.37</v>
       </c>
       <c r="J110">
-        <v>95.92</v>
+        <v>95.89</v>
       </c>
       <c r="K110">
-        <v>121.29</v>
+        <v>121.31</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
       <c r="M110">
-        <v>121.29</v>
+        <v>121.31</v>
       </c>
       <c r="N110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B111">
         <v>23.580489</v>
@@ -5785,36 +6063,36 @@
         <v>19</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>13</v>
       </c>
       <c r="H111">
-        <v>467.26</v>
+        <v>467.33</v>
       </c>
       <c r="I111">
-        <v>791.17</v>
+        <v>791.35</v>
       </c>
       <c r="J111">
-        <v>94.43</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="K111">
-        <v>116.82</v>
+        <v>116.83</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
       <c r="M111">
-        <v>116.82</v>
+        <v>116.83</v>
       </c>
       <c r="N111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B112">
         <v>23.580489</v>
@@ -5829,36 +6107,36 @@
         <v>19</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G112">
         <v>14</v>
       </c>
       <c r="H112">
-        <v>397.45</v>
+        <v>397.5</v>
       </c>
       <c r="I112">
-        <v>751.92</v>
+        <v>752.09</v>
       </c>
       <c r="J112">
-        <v>88.23</v>
+        <v>88.2</v>
       </c>
       <c r="K112">
-        <v>99.36</v>
+        <v>99.38</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
       <c r="M112">
-        <v>99.36</v>
+        <v>99.38</v>
       </c>
       <c r="N112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B113">
         <v>23.580489</v>
@@ -5873,36 +6151,36 @@
         <v>19</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G113">
         <v>15</v>
       </c>
       <c r="H113">
-        <v>283.94</v>
+        <v>283.99</v>
       </c>
       <c r="I113">
-        <v>669.44</v>
+        <v>669.6</v>
       </c>
       <c r="J113">
-        <v>76.349999999999994</v>
+        <v>76.33</v>
       </c>
       <c r="K113">
-        <v>70.989999999999995</v>
+        <v>71</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
       <c r="M113">
-        <v>70.989999999999995</v>
+        <v>71</v>
       </c>
       <c r="N113" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B114">
         <v>23.580489</v>
@@ -5917,36 +6195,36 @@
         <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>16</v>
       </c>
       <c r="H114">
-        <v>143.07</v>
+        <v>143.09</v>
       </c>
       <c r="I114">
-        <v>501.55</v>
+        <v>501.66</v>
       </c>
       <c r="J114">
-        <v>55.92</v>
+        <v>55.91</v>
       </c>
       <c r="K114">
-        <v>35.770000000000003</v>
+        <v>35.77</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
       <c r="M114">
-        <v>35.770000000000003</v>
+        <v>35.77</v>
       </c>
       <c r="N114" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B115">
         <v>23.580489</v>
@@ -5961,36 +6239,36 @@
         <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>17</v>
       </c>
       <c r="H115">
-        <v>19.920000000000002</v>
+        <v>19.92</v>
       </c>
       <c r="I115">
-        <v>126.7</v>
+        <v>126.71</v>
       </c>
       <c r="J115">
-        <v>17.010000000000002</v>
+        <v>17.01</v>
       </c>
       <c r="K115">
-        <v>5</v>
+        <v>5.06</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>5.06</v>
       </c>
       <c r="N115" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B116">
         <v>23.580489</v>
@@ -6005,7 +6283,7 @@
         <v>19</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G116">
         <v>18</v>
@@ -6029,12 +6307,12 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B117">
         <v>23.580489</v>
@@ -6049,7 +6327,7 @@
         <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G117">
         <v>19</v>
@@ -6073,12 +6351,12 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B118">
         <v>23.580489</v>
@@ -6093,7 +6371,7 @@
         <v>19</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G118">
         <v>20</v>
@@ -6117,12 +6395,12 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B119">
         <v>23.580489</v>
@@ -6137,7 +6415,7 @@
         <v>19</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G119">
         <v>21</v>
@@ -6161,12 +6439,12 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B120">
         <v>23.580489</v>
@@ -6181,7 +6459,7 @@
         <v>19</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G120">
         <v>22</v>
@@ -6205,12 +6483,12 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B121">
         <v>23.580489</v>
@@ -6225,7 +6503,7 @@
         <v>19</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G121">
         <v>23</v>
@@ -6249,12 +6527,12 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B122">
         <v>23.580489</v>
@@ -6269,7 +6547,7 @@
         <v>20</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6293,12 +6571,12 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B123">
         <v>23.580489</v>
@@ -6313,7 +6591,7 @@
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -6337,12 +6615,12 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B124">
         <v>23.580489</v>
@@ -6357,7 +6635,7 @@
         <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -6381,12 +6659,12 @@
         <v>0</v>
       </c>
       <c r="N124" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B125">
         <v>23.580489</v>
@@ -6401,7 +6679,7 @@
         <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -6425,12 +6703,12 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B126">
         <v>23.580489</v>
@@ -6445,7 +6723,7 @@
         <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -6469,12 +6747,12 @@
         <v>0</v>
       </c>
       <c r="N126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B127">
         <v>23.580489</v>
@@ -6489,7 +6767,7 @@
         <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>5</v>
@@ -6513,12 +6791,12 @@
         <v>0</v>
       </c>
       <c r="N127" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B128">
         <v>23.580489</v>
@@ -6533,7 +6811,7 @@
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>6</v>
@@ -6557,12 +6835,12 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B129">
         <v>23.580489</v>
@@ -6577,7 +6855,7 @@
         <v>20</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>7</v>
@@ -6586,27 +6864,27 @@
         <v>4.25</v>
       </c>
       <c r="I129">
-        <v>34.74</v>
+        <v>34.75</v>
       </c>
       <c r="J129">
         <v>5.7</v>
       </c>
       <c r="K129">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
       <c r="M129">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="N129" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B130">
         <v>23.580489</v>
@@ -6621,7 +6899,7 @@
         <v>20</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G130">
         <v>8</v>
@@ -6630,27 +6908,27 @@
         <v>98.44</v>
       </c>
       <c r="I130">
-        <v>411.91</v>
+        <v>411.97</v>
       </c>
       <c r="J130">
         <v>46.58</v>
       </c>
       <c r="K130">
-        <v>47.99</v>
+        <v>49.32</v>
       </c>
       <c r="L130">
-        <v>5.3</v>
+        <v>19.89</v>
       </c>
       <c r="M130">
-        <v>47</v>
+        <v>47.05</v>
       </c>
       <c r="N130" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B131">
         <v>23.580489</v>
@@ -6665,36 +6943,36 @@
         <v>20</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>9</v>
       </c>
       <c r="H131">
-        <v>243</v>
+        <v>243.02</v>
       </c>
       <c r="I131">
-        <v>630.58000000000004</v>
+        <v>630.63</v>
       </c>
       <c r="J131">
         <v>71.31</v>
       </c>
       <c r="K131">
-        <v>124.63</v>
+        <v>60.75</v>
       </c>
       <c r="L131">
-        <v>36.18</v>
+        <v>0</v>
       </c>
       <c r="M131">
-        <v>114.09</v>
+        <v>60.75</v>
       </c>
       <c r="N131" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B132">
         <v>23.580489</v>
@@ -6709,36 +6987,36 @@
         <v>20</v>
       </c>
       <c r="F132" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G132">
         <v>10</v>
       </c>
       <c r="H132">
-        <v>368.62</v>
+        <v>368.65</v>
       </c>
       <c r="I132">
-        <v>733.05</v>
+        <v>733.13</v>
       </c>
       <c r="J132">
-        <v>85.48</v>
+        <v>85.47</v>
       </c>
       <c r="K132">
-        <v>198.52</v>
+        <v>92.16</v>
       </c>
       <c r="L132">
-        <v>70.64</v>
+        <v>0</v>
       </c>
       <c r="M132">
-        <v>170.42</v>
+        <v>92.16</v>
       </c>
       <c r="N132" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B133">
         <v>23.580489</v>
@@ -6753,36 +7031,36 @@
         <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G133">
         <v>11</v>
       </c>
       <c r="H133">
-        <v>454.74</v>
+        <v>454.76</v>
       </c>
       <c r="I133">
-        <v>784.19</v>
+        <v>784.24</v>
       </c>
       <c r="J133">
         <v>93.38</v>
       </c>
       <c r="K133">
-        <v>244.62</v>
+        <v>113.69</v>
       </c>
       <c r="L133">
-        <v>75.61</v>
+        <v>0</v>
       </c>
       <c r="M133">
-        <v>209.22</v>
+        <v>113.69</v>
       </c>
       <c r="N133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B134">
         <v>23.580489</v>
@@ -6797,36 +7075,36 @@
         <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>12</v>
       </c>
       <c r="H134">
-        <v>490.85</v>
+        <v>490.84</v>
       </c>
       <c r="I134">
-        <v>802.7</v>
+        <v>802.66</v>
       </c>
       <c r="J134">
-        <v>96.38</v>
+        <v>96.39</v>
       </c>
       <c r="K134">
-        <v>243.12</v>
+        <v>122.71</v>
       </c>
       <c r="L134">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M134">
-        <v>222.63</v>
+        <v>122.71</v>
       </c>
       <c r="N134" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B135">
         <v>23.580489</v>
@@ -6841,36 +7119,36 @@
         <v>20</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>13</v>
       </c>
       <c r="H135">
-        <v>472.92</v>
+        <v>472.89</v>
       </c>
       <c r="I135">
-        <v>793.78</v>
+        <v>793.7</v>
       </c>
       <c r="J135">
-        <v>94.89</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="K135">
-        <v>212.79</v>
+        <v>118.22</v>
       </c>
       <c r="L135">
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="M135">
-        <v>200.72</v>
+        <v>118.22</v>
       </c>
       <c r="N135" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B136">
         <v>23.580489</v>
@@ -6885,36 +7163,36 @@
         <v>20</v>
       </c>
       <c r="F136" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G136">
         <v>14</v>
       </c>
       <c r="H136">
-        <v>402.92</v>
+        <v>402.88</v>
       </c>
       <c r="I136">
-        <v>754.96</v>
+        <v>754.83</v>
       </c>
       <c r="J136">
-        <v>88.73</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="K136">
-        <v>161.55000000000001</v>
+        <v>100.72</v>
       </c>
       <c r="L136">
-        <v>9.26</v>
+        <v>0</v>
       </c>
       <c r="M136">
-        <v>157.51</v>
+        <v>100.72</v>
       </c>
       <c r="N136" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B137">
         <v>23.580489</v>
@@ -6929,36 +7207,36 @@
         <v>20</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G137">
         <v>15</v>
       </c>
       <c r="H137">
-        <v>289.05</v>
+        <v>289</v>
       </c>
       <c r="I137">
-        <v>673.53</v>
+        <v>673.36</v>
       </c>
       <c r="J137">
-        <v>76.94</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="K137">
-        <v>100.46</v>
+        <v>72.25</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
       <c r="M137">
-        <v>100.46</v>
+        <v>72.25</v>
       </c>
       <c r="N137" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B138">
         <v>23.580489</v>
@@ -6973,36 +7251,36 @@
         <v>20</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G138">
         <v>16</v>
       </c>
       <c r="H138">
-        <v>147.49</v>
+        <v>147.45</v>
       </c>
       <c r="I138">
-        <v>508.59</v>
+        <v>508.37</v>
       </c>
       <c r="J138">
-        <v>56.72</v>
+        <v>56.73</v>
       </c>
       <c r="K138">
-        <v>43.13</v>
+        <v>36.86</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
       <c r="M138">
-        <v>43.13</v>
+        <v>36.86</v>
       </c>
       <c r="N138" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B139">
         <v>23.580489</v>
@@ -7017,16 +7295,16 @@
         <v>20</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G139">
         <v>17</v>
       </c>
       <c r="H139">
-        <v>21.87</v>
+        <v>21.86</v>
       </c>
       <c r="I139">
-        <v>136.88</v>
+        <v>136.76</v>
       </c>
       <c r="J139">
         <v>18.13</v>
@@ -7041,12 +7319,12 @@
         <v>5.47</v>
       </c>
       <c r="N139" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B140">
         <v>23.580489</v>
@@ -7061,7 +7339,7 @@
         <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G140">
         <v>18</v>
@@ -7085,12 +7363,12 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B141">
         <v>23.580489</v>
@@ -7105,7 +7383,7 @@
         <v>20</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G141">
         <v>19</v>
@@ -7129,12 +7407,12 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B142">
         <v>23.580489</v>
@@ -7149,7 +7427,7 @@
         <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G142">
         <v>20</v>
@@ -7173,12 +7451,12 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B143">
         <v>23.580489</v>
@@ -7193,7 +7471,7 @@
         <v>20</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G143">
         <v>21</v>
@@ -7217,12 +7495,12 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B144">
         <v>23.580489</v>
@@ -7237,7 +7515,7 @@
         <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G144">
         <v>22</v>
@@ -7261,12 +7539,12 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145">
-        <v>46.073272000000003</v>
+        <v>46.073272</v>
       </c>
       <c r="B145">
         <v>23.580489</v>
@@ -7281,7 +7559,7 @@
         <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>23</v>
@@ -7305,7 +7583,4231 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>170</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146">
+        <v>46.073272</v>
+      </c>
+      <c r="B146">
+        <v>23.580489</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147">
+        <v>46.073272</v>
+      </c>
+      <c r="B147">
+        <v>23.580489</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148">
+        <v>46.073272</v>
+      </c>
+      <c r="B148">
+        <v>23.580489</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149">
+        <v>46.073272</v>
+      </c>
+      <c r="B149">
+        <v>23.580489</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150">
+        <v>46.073272</v>
+      </c>
+      <c r="B150">
+        <v>23.580489</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150" t="s">
+        <v>31</v>
+      </c>
+      <c r="G150">
+        <v>4</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151">
+        <v>46.073272</v>
+      </c>
+      <c r="B151">
+        <v>23.580489</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151">
+        <v>5</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152">
+        <v>46.073272</v>
+      </c>
+      <c r="B152">
+        <v>23.580489</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152">
+        <v>6</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153">
+        <v>46.073272</v>
+      </c>
+      <c r="B153">
+        <v>23.580489</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" t="s">
+        <v>31</v>
+      </c>
+      <c r="G153">
+        <v>7</v>
+      </c>
+      <c r="H153">
+        <v>5.05</v>
+      </c>
+      <c r="I153">
+        <v>39.93</v>
+      </c>
+      <c r="J153">
+        <v>6.65</v>
+      </c>
+      <c r="K153">
+        <v>1.26</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1.26</v>
+      </c>
+      <c r="N153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154">
+        <v>46.073272</v>
+      </c>
+      <c r="B154">
+        <v>23.580489</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>21</v>
+      </c>
+      <c r="F154" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154">
+        <v>8</v>
+      </c>
+      <c r="H154">
+        <v>102.48</v>
+      </c>
+      <c r="I154">
+        <v>420.84</v>
+      </c>
+      <c r="J154">
+        <v>47.54</v>
+      </c>
+      <c r="K154">
+        <v>25.62</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>25.62</v>
+      </c>
+      <c r="N154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155">
+        <v>46.073272</v>
+      </c>
+      <c r="B155">
+        <v>23.580489</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>21</v>
+      </c>
+      <c r="F155" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155">
+        <v>9</v>
+      </c>
+      <c r="H155">
+        <v>247.91</v>
+      </c>
+      <c r="I155">
+        <v>634.91</v>
+      </c>
+      <c r="J155">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="K155">
+        <v>61.98</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>61.98</v>
+      </c>
+      <c r="N155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156">
+        <v>46.073272</v>
+      </c>
+      <c r="B156">
+        <v>23.580489</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>21</v>
+      </c>
+      <c r="F156" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156">
+        <v>10</v>
+      </c>
+      <c r="H156">
+        <v>373.92</v>
+      </c>
+      <c r="I156">
+        <v>735.89</v>
+      </c>
+      <c r="J156">
+        <v>86.06</v>
+      </c>
+      <c r="K156">
+        <v>93.48</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>93.48</v>
+      </c>
+      <c r="N156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157">
+        <v>46.073272</v>
+      </c>
+      <c r="B157">
+        <v>23.580489</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" t="s">
+        <v>21</v>
+      </c>
+      <c r="F157" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157">
+        <v>11</v>
+      </c>
+      <c r="H157">
+        <v>460.22</v>
+      </c>
+      <c r="I157">
+        <v>786.36</v>
+      </c>
+      <c r="J157">
+        <v>93.94</v>
+      </c>
+      <c r="K157">
+        <v>115.06</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>115.06</v>
+      </c>
+      <c r="N157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158">
+        <v>46.073272</v>
+      </c>
+      <c r="B158">
+        <v>23.580489</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158">
+        <v>12</v>
+      </c>
+      <c r="H158">
+        <v>496.37</v>
+      </c>
+      <c r="I158">
+        <v>804.5599999999999</v>
+      </c>
+      <c r="J158">
+        <v>96.94</v>
+      </c>
+      <c r="K158">
+        <v>124.09</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>124.09</v>
+      </c>
+      <c r="N158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159">
+        <v>46.073272</v>
+      </c>
+      <c r="B159">
+        <v>23.580489</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
+        <v>21</v>
+      </c>
+      <c r="F159" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159">
+        <v>13</v>
+      </c>
+      <c r="H159">
+        <v>478.35</v>
+      </c>
+      <c r="I159">
+        <v>795.65</v>
+      </c>
+      <c r="J159">
+        <v>95.47</v>
+      </c>
+      <c r="K159">
+        <v>119.59</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>119.59</v>
+      </c>
+      <c r="N159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160">
+        <v>46.073272</v>
+      </c>
+      <c r="B160">
+        <v>23.580489</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s">
+        <v>21</v>
+      </c>
+      <c r="F160" t="s">
+        <v>31</v>
+      </c>
+      <c r="G160">
+        <v>14</v>
+      </c>
+      <c r="H160">
+        <v>408.15</v>
+      </c>
+      <c r="I160">
+        <v>757.13</v>
+      </c>
+      <c r="J160">
+        <v>89.34</v>
+      </c>
+      <c r="K160">
+        <v>102.04</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>102.04</v>
+      </c>
+      <c r="N160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161">
+        <v>46.073272</v>
+      </c>
+      <c r="B161">
+        <v>23.580489</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" t="s">
+        <v>31</v>
+      </c>
+      <c r="G161">
+        <v>15</v>
+      </c>
+      <c r="H161">
+        <v>293.93</v>
+      </c>
+      <c r="I161">
+        <v>676.59</v>
+      </c>
+      <c r="J161">
+        <v>77.62</v>
+      </c>
+      <c r="K161">
+        <v>73.48</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>73.48</v>
+      </c>
+      <c r="N161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162">
+        <v>46.073272</v>
+      </c>
+      <c r="B162">
+        <v>23.580489</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" t="s">
+        <v>31</v>
+      </c>
+      <c r="G162">
+        <v>16</v>
+      </c>
+      <c r="H162">
+        <v>151.75</v>
+      </c>
+      <c r="I162">
+        <v>514.35</v>
+      </c>
+      <c r="J162">
+        <v>57.57</v>
+      </c>
+      <c r="K162">
+        <v>37.94</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>37.94</v>
+      </c>
+      <c r="N162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163">
+        <v>46.073272</v>
+      </c>
+      <c r="B163">
+        <v>23.580489</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
+        <v>21</v>
+      </c>
+      <c r="F163" t="s">
+        <v>31</v>
+      </c>
+      <c r="G163">
+        <v>17</v>
+      </c>
+      <c r="H163">
+        <v>23.87</v>
+      </c>
+      <c r="I163">
+        <v>146.66</v>
+      </c>
+      <c r="J163">
+        <v>19.21</v>
+      </c>
+      <c r="K163">
+        <v>5.97</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>5.97</v>
+      </c>
+      <c r="N163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164">
+        <v>46.073272</v>
+      </c>
+      <c r="B164">
+        <v>23.580489</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" t="s">
+        <v>31</v>
+      </c>
+      <c r="G164">
+        <v>18</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165">
+        <v>46.073272</v>
+      </c>
+      <c r="B165">
+        <v>23.580489</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>21</v>
+      </c>
+      <c r="F165" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165">
+        <v>19</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166">
+        <v>46.073272</v>
+      </c>
+      <c r="B166">
+        <v>23.580489</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>21</v>
+      </c>
+      <c r="F166" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166">
+        <v>20</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167">
+        <v>46.073272</v>
+      </c>
+      <c r="B167">
+        <v>23.580489</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>21</v>
+      </c>
+      <c r="F167" t="s">
+        <v>31</v>
+      </c>
+      <c r="G167">
+        <v>21</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168">
+        <v>46.073272</v>
+      </c>
+      <c r="B168">
+        <v>23.580489</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168">
+        <v>22</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169">
+        <v>46.073272</v>
+      </c>
+      <c r="B169">
+        <v>23.580489</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169">
+        <v>23</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170">
+        <v>46.073272</v>
+      </c>
+      <c r="B170">
+        <v>23.580489</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
+        <v>22</v>
+      </c>
+      <c r="F170" t="s">
+        <v>32</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171">
+        <v>46.073272</v>
+      </c>
+      <c r="B171">
+        <v>23.580489</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
+        <v>22</v>
+      </c>
+      <c r="F171" t="s">
+        <v>32</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172">
+        <v>46.073272</v>
+      </c>
+      <c r="B172">
+        <v>23.580489</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172" t="s">
+        <v>32</v>
+      </c>
+      <c r="G172">
+        <v>2</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173">
+        <v>46.073272</v>
+      </c>
+      <c r="B173">
+        <v>23.580489</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" t="s">
+        <v>22</v>
+      </c>
+      <c r="F173" t="s">
+        <v>32</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174">
+        <v>46.073272</v>
+      </c>
+      <c r="B174">
+        <v>23.580489</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" t="s">
+        <v>32</v>
+      </c>
+      <c r="G174">
+        <v>4</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175">
+        <v>46.073272</v>
+      </c>
+      <c r="B175">
+        <v>23.580489</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" t="s">
+        <v>32</v>
+      </c>
+      <c r="G175">
+        <v>5</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176">
+        <v>46.073272</v>
+      </c>
+      <c r="B176">
+        <v>23.580489</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" t="s">
+        <v>32</v>
+      </c>
+      <c r="G176">
+        <v>6</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177">
+        <v>46.073272</v>
+      </c>
+      <c r="B177">
+        <v>23.580489</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177" t="s">
+        <v>32</v>
+      </c>
+      <c r="G177">
+        <v>7</v>
+      </c>
+      <c r="H177">
+        <v>5.97</v>
+      </c>
+      <c r="I177">
+        <v>46.01</v>
+      </c>
+      <c r="J177">
+        <v>7.57</v>
+      </c>
+      <c r="K177">
+        <v>2.88</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>2.88</v>
+      </c>
+      <c r="N177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178">
+        <v>46.073272</v>
+      </c>
+      <c r="B178">
+        <v>23.580489</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D178" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" t="s">
+        <v>32</v>
+      </c>
+      <c r="G178">
+        <v>8</v>
+      </c>
+      <c r="H178">
+        <v>106.44</v>
+      </c>
+      <c r="I178">
+        <v>428.34</v>
+      </c>
+      <c r="J178">
+        <v>48.55</v>
+      </c>
+      <c r="K178">
+        <v>53.86</v>
+      </c>
+      <c r="L178">
+        <v>5.41</v>
+      </c>
+      <c r="M178">
+        <v>52.77</v>
+      </c>
+      <c r="N178" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179">
+        <v>46.073272</v>
+      </c>
+      <c r="B179">
+        <v>23.580489</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" t="s">
+        <v>22</v>
+      </c>
+      <c r="F179" t="s">
+        <v>32</v>
+      </c>
+      <c r="G179">
+        <v>9</v>
+      </c>
+      <c r="H179">
+        <v>252.63</v>
+      </c>
+      <c r="I179">
+        <v>638.0599999999999</v>
+      </c>
+      <c r="J179">
+        <v>72.77</v>
+      </c>
+      <c r="K179">
+        <v>132.11</v>
+      </c>
+      <c r="L179">
+        <v>37.34</v>
+      </c>
+      <c r="M179">
+        <v>121.19</v>
+      </c>
+      <c r="N179" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180">
+        <v>46.073272</v>
+      </c>
+      <c r="B180">
+        <v>23.580489</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D180" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" t="s">
+        <v>22</v>
+      </c>
+      <c r="F180" t="s">
+        <v>32</v>
+      </c>
+      <c r="G180">
+        <v>10</v>
+      </c>
+      <c r="H180">
+        <v>379</v>
+      </c>
+      <c r="I180">
+        <v>737.77</v>
+      </c>
+      <c r="J180">
+        <v>86.78</v>
+      </c>
+      <c r="K180">
+        <v>190.73</v>
+      </c>
+      <c r="L180">
+        <v>29.4</v>
+      </c>
+      <c r="M180">
+        <v>178.87</v>
+      </c>
+      <c r="N180" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181">
+        <v>46.073272</v>
+      </c>
+      <c r="B181">
+        <v>23.580489</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" t="s">
+        <v>32</v>
+      </c>
+      <c r="G181">
+        <v>11</v>
+      </c>
+      <c r="H181">
+        <v>465.49</v>
+      </c>
+      <c r="I181">
+        <v>787.77</v>
+      </c>
+      <c r="J181">
+        <v>94.62</v>
+      </c>
+      <c r="K181">
+        <v>219.57</v>
+      </c>
+      <c r="L181">
+        <v>22.99</v>
+      </c>
+      <c r="M181">
+        <v>208.56</v>
+      </c>
+      <c r="N181" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182">
+        <v>46.073272</v>
+      </c>
+      <c r="B182">
+        <v>23.580489</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="s">
+        <v>22</v>
+      </c>
+      <c r="F182" t="s">
+        <v>32</v>
+      </c>
+      <c r="G182">
+        <v>12</v>
+      </c>
+      <c r="H182">
+        <v>501.71</v>
+      </c>
+      <c r="I182">
+        <v>805.85</v>
+      </c>
+      <c r="J182">
+        <v>97.61</v>
+      </c>
+      <c r="K182">
+        <v>229.35</v>
+      </c>
+      <c r="L182">
+        <v>20.18</v>
+      </c>
+      <c r="M182">
+        <v>219.06</v>
+      </c>
+      <c r="N182" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183">
+        <v>46.073272</v>
+      </c>
+      <c r="B183">
+        <v>23.580489</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" t="s">
+        <v>32</v>
+      </c>
+      <c r="G183">
+        <v>13</v>
+      </c>
+      <c r="H183">
+        <v>483.65</v>
+      </c>
+      <c r="I183">
+        <v>797.05</v>
+      </c>
+      <c r="J183">
+        <v>96.13</v>
+      </c>
+      <c r="K183">
+        <v>219.28</v>
+      </c>
+      <c r="L183">
+        <v>18.95</v>
+      </c>
+      <c r="M183">
+        <v>209.89</v>
+      </c>
+      <c r="N183" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184">
+        <v>46.073272</v>
+      </c>
+      <c r="B184">
+        <v>23.580489</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" t="s">
+        <v>32</v>
+      </c>
+      <c r="G184">
+        <v>14</v>
+      </c>
+      <c r="H184">
+        <v>413.29</v>
+      </c>
+      <c r="I184">
+        <v>758.95</v>
+      </c>
+      <c r="J184">
+        <v>90.01000000000001</v>
+      </c>
+      <c r="K184">
+        <v>171.2</v>
+      </c>
+      <c r="L184">
+        <v>9.32</v>
+      </c>
+      <c r="M184">
+        <v>167.03</v>
+      </c>
+      <c r="N184" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185">
+        <v>46.073272</v>
+      </c>
+      <c r="B185">
+        <v>23.580489</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D185" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" t="s">
+        <v>22</v>
+      </c>
+      <c r="F185" t="s">
+        <v>32</v>
+      </c>
+      <c r="G185">
+        <v>15</v>
+      </c>
+      <c r="H185">
+        <v>298.77</v>
+      </c>
+      <c r="I185">
+        <v>679.4</v>
+      </c>
+      <c r="J185">
+        <v>78.33</v>
+      </c>
+      <c r="K185">
+        <v>103.08</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>103.08</v>
+      </c>
+      <c r="N185" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186">
+        <v>46.073272</v>
+      </c>
+      <c r="B186">
+        <v>23.580489</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" t="s">
+        <v>32</v>
+      </c>
+      <c r="G186">
+        <v>16</v>
+      </c>
+      <c r="H186">
+        <v>156.02</v>
+      </c>
+      <c r="I186">
+        <v>519.9299999999999</v>
+      </c>
+      <c r="J186">
+        <v>58.42</v>
+      </c>
+      <c r="K186">
+        <v>52.4</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>52.4</v>
+      </c>
+      <c r="N186" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187">
+        <v>46.073272</v>
+      </c>
+      <c r="B187">
+        <v>23.580489</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" t="s">
+        <v>32</v>
+      </c>
+      <c r="G187">
+        <v>17</v>
+      </c>
+      <c r="H187">
+        <v>25.96</v>
+      </c>
+      <c r="I187">
+        <v>156.47</v>
+      </c>
+      <c r="J187">
+        <v>20.27</v>
+      </c>
+      <c r="K187">
+        <v>9.08</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>9.08</v>
+      </c>
+      <c r="N187" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188">
+        <v>46.073272</v>
+      </c>
+      <c r="B188">
+        <v>23.580489</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" t="s">
+        <v>32</v>
+      </c>
+      <c r="G188">
+        <v>18</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189">
+        <v>46.073272</v>
+      </c>
+      <c r="B189">
+        <v>23.580489</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" t="s">
+        <v>22</v>
+      </c>
+      <c r="F189" t="s">
+        <v>32</v>
+      </c>
+      <c r="G189">
+        <v>19</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190">
+        <v>46.073272</v>
+      </c>
+      <c r="B190">
+        <v>23.580489</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>22</v>
+      </c>
+      <c r="F190" t="s">
+        <v>32</v>
+      </c>
+      <c r="G190">
+        <v>20</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191">
+        <v>46.073272</v>
+      </c>
+      <c r="B191">
+        <v>23.580489</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" t="s">
+        <v>32</v>
+      </c>
+      <c r="G191">
+        <v>21</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192">
+        <v>46.073272</v>
+      </c>
+      <c r="B192">
+        <v>23.580489</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192">
+        <v>22</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193">
+        <v>46.073272</v>
+      </c>
+      <c r="B193">
+        <v>23.580489</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193">
+        <v>23</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194">
+        <v>46.073272</v>
+      </c>
+      <c r="B194">
+        <v>23.580489</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" t="s">
+        <v>23</v>
+      </c>
+      <c r="F194" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195">
+        <v>46.073272</v>
+      </c>
+      <c r="B195">
+        <v>23.580489</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" t="s">
+        <v>23</v>
+      </c>
+      <c r="F195" t="s">
+        <v>33</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196">
+        <v>46.073272</v>
+      </c>
+      <c r="B196">
+        <v>23.580489</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196">
+        <v>2</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197">
+        <v>46.073272</v>
+      </c>
+      <c r="B197">
+        <v>23.580489</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D197" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" t="s">
+        <v>23</v>
+      </c>
+      <c r="F197" t="s">
+        <v>33</v>
+      </c>
+      <c r="G197">
+        <v>3</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198">
+        <v>46.073272</v>
+      </c>
+      <c r="B198">
+        <v>23.580489</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" t="s">
+        <v>33</v>
+      </c>
+      <c r="G198">
+        <v>4</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199">
+        <v>46.073272</v>
+      </c>
+      <c r="B199">
+        <v>23.580489</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" t="s">
+        <v>23</v>
+      </c>
+      <c r="F199" t="s">
+        <v>33</v>
+      </c>
+      <c r="G199">
+        <v>5</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200">
+        <v>46.073272</v>
+      </c>
+      <c r="B200">
+        <v>23.580489</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" t="s">
+        <v>23</v>
+      </c>
+      <c r="F200" t="s">
+        <v>33</v>
+      </c>
+      <c r="G200">
+        <v>6</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201">
+        <v>46.073272</v>
+      </c>
+      <c r="B201">
+        <v>23.580489</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D201" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" t="s">
+        <v>23</v>
+      </c>
+      <c r="F201" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201">
+        <v>7</v>
+      </c>
+      <c r="H201">
+        <v>7.03</v>
+      </c>
+      <c r="I201">
+        <v>53.18</v>
+      </c>
+      <c r="J201">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="K201">
+        <v>7.02</v>
+      </c>
+      <c r="L201">
+        <v>5.18</v>
+      </c>
+      <c r="M201">
+        <v>6.74</v>
+      </c>
+      <c r="N201" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202">
+        <v>46.073272</v>
+      </c>
+      <c r="B202">
+        <v>23.580489</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D202" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" t="s">
+        <v>23</v>
+      </c>
+      <c r="F202" t="s">
+        <v>33</v>
+      </c>
+      <c r="G202">
+        <v>8</v>
+      </c>
+      <c r="H202">
+        <v>110.67</v>
+      </c>
+      <c r="I202">
+        <v>436.94</v>
+      </c>
+      <c r="J202">
+        <v>49.52</v>
+      </c>
+      <c r="K202">
+        <v>110.62</v>
+      </c>
+      <c r="L202">
+        <v>397.67</v>
+      </c>
+      <c r="M202">
+        <v>45.26</v>
+      </c>
+      <c r="N202" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203">
+        <v>46.073272</v>
+      </c>
+      <c r="B203">
+        <v>23.580489</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D203" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" t="s">
+        <v>23</v>
+      </c>
+      <c r="F203" t="s">
+        <v>33</v>
+      </c>
+      <c r="G203">
+        <v>9</v>
+      </c>
+      <c r="H203">
+        <v>257.7</v>
+      </c>
+      <c r="I203">
+        <v>642.37</v>
+      </c>
+      <c r="J203">
+        <v>73.45</v>
+      </c>
+      <c r="K203">
+        <v>257.69</v>
+      </c>
+      <c r="L203">
+        <v>623.08</v>
+      </c>
+      <c r="M203">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="N203" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204">
+        <v>46.073272</v>
+      </c>
+      <c r="B204">
+        <v>23.580489</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D204" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" t="s">
+        <v>23</v>
+      </c>
+      <c r="F204" t="s">
+        <v>33</v>
+      </c>
+      <c r="G204">
+        <v>10</v>
+      </c>
+      <c r="H204">
+        <v>384.47</v>
+      </c>
+      <c r="I204">
+        <v>740.71</v>
+      </c>
+      <c r="J204">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="K204">
+        <v>384.45</v>
+      </c>
+      <c r="L204">
+        <v>724.48</v>
+      </c>
+      <c r="M204">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="N204" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205">
+        <v>46.073272</v>
+      </c>
+      <c r="B205">
+        <v>23.580489</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D205" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" t="s">
+        <v>23</v>
+      </c>
+      <c r="F205" t="s">
+        <v>33</v>
+      </c>
+      <c r="G205">
+        <v>11</v>
+      </c>
+      <c r="H205">
+        <v>471.17</v>
+      </c>
+      <c r="I205">
+        <v>790.17</v>
+      </c>
+      <c r="J205">
+        <v>95.14</v>
+      </c>
+      <c r="K205">
+        <v>471.15</v>
+      </c>
+      <c r="L205">
+        <v>766.53</v>
+      </c>
+      <c r="M205">
+        <v>99.56</v>
+      </c>
+      <c r="N205" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206">
+        <v>46.073272</v>
+      </c>
+      <c r="B206">
+        <v>23.580489</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D206" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206" t="s">
+        <v>23</v>
+      </c>
+      <c r="F206" t="s">
+        <v>33</v>
+      </c>
+      <c r="G206">
+        <v>12</v>
+      </c>
+      <c r="H206">
+        <v>507.45</v>
+      </c>
+      <c r="I206">
+        <v>808.08</v>
+      </c>
+      <c r="J206">
+        <v>98.11</v>
+      </c>
+      <c r="K206">
+        <v>507.44</v>
+      </c>
+      <c r="L206">
+        <v>780.15</v>
+      </c>
+      <c r="M206">
+        <v>105.47</v>
+      </c>
+      <c r="N206" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207">
+        <v>46.073272</v>
+      </c>
+      <c r="B207">
+        <v>23.580489</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D207" t="s">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>23</v>
+      </c>
+      <c r="F207" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207">
+        <v>13</v>
+      </c>
+      <c r="H207">
+        <v>489.34</v>
+      </c>
+      <c r="I207">
+        <v>799.39</v>
+      </c>
+      <c r="J207">
+        <v>96.63</v>
+      </c>
+      <c r="K207">
+        <v>489.32</v>
+      </c>
+      <c r="L207">
+        <v>773.62</v>
+      </c>
+      <c r="M207">
+        <v>102.49</v>
+      </c>
+      <c r="N207" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208">
+        <v>46.073272</v>
+      </c>
+      <c r="B208">
+        <v>23.580489</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D208" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" t="s">
+        <v>23</v>
+      </c>
+      <c r="F208" t="s">
+        <v>33</v>
+      </c>
+      <c r="G208">
+        <v>14</v>
+      </c>
+      <c r="H208">
+        <v>418.78</v>
+      </c>
+      <c r="I208">
+        <v>761.7</v>
+      </c>
+      <c r="J208">
+        <v>90.53</v>
+      </c>
+      <c r="K208">
+        <v>418.77</v>
+      </c>
+      <c r="L208">
+        <v>743.1</v>
+      </c>
+      <c r="M208">
+        <v>91.61</v>
+      </c>
+      <c r="N208" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
+      <c r="A209">
+        <v>46.073272</v>
+      </c>
+      <c r="B209">
+        <v>23.580489</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D209" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" t="s">
+        <v>23</v>
+      </c>
+      <c r="F209" t="s">
+        <v>33</v>
+      </c>
+      <c r="G209">
+        <v>15</v>
+      </c>
+      <c r="H209">
+        <v>303.9</v>
+      </c>
+      <c r="I209">
+        <v>683.17</v>
+      </c>
+      <c r="J209">
+        <v>78.92</v>
+      </c>
+      <c r="K209">
+        <v>303.89</v>
+      </c>
+      <c r="L209">
+        <v>664.9400000000001</v>
+      </c>
+      <c r="M209">
+        <v>77.3</v>
+      </c>
+      <c r="N209" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210">
+        <v>46.073272</v>
+      </c>
+      <c r="B210">
+        <v>23.580489</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
+        <v>23</v>
+      </c>
+      <c r="F210" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210">
+        <v>16</v>
+      </c>
+      <c r="H210">
+        <v>160.51</v>
+      </c>
+      <c r="I210">
+        <v>526.4299999999999</v>
+      </c>
+      <c r="J210">
+        <v>59.2</v>
+      </c>
+      <c r="K210">
+        <v>160.5</v>
+      </c>
+      <c r="L210">
+        <v>501.45</v>
+      </c>
+      <c r="M210">
+        <v>55.03</v>
+      </c>
+      <c r="N210" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211">
+        <v>46.073272</v>
+      </c>
+      <c r="B211">
+        <v>23.580489</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D211" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211" t="s">
+        <v>23</v>
+      </c>
+      <c r="F211" t="s">
+        <v>33</v>
+      </c>
+      <c r="G211">
+        <v>17</v>
+      </c>
+      <c r="H211">
+        <v>28.17</v>
+      </c>
+      <c r="I211">
+        <v>166.75</v>
+      </c>
+      <c r="J211">
+        <v>21.29</v>
+      </c>
+      <c r="K211">
+        <v>28.17</v>
+      </c>
+      <c r="L211">
+        <v>108.28</v>
+      </c>
+      <c r="M211">
+        <v>17.7</v>
+      </c>
+      <c r="N211" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212">
+        <v>46.073272</v>
+      </c>
+      <c r="B212">
+        <v>23.580489</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D212" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" t="s">
+        <v>23</v>
+      </c>
+      <c r="F212" t="s">
+        <v>33</v>
+      </c>
+      <c r="G212">
+        <v>18</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213">
+        <v>46.073272</v>
+      </c>
+      <c r="B213">
+        <v>23.580489</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D213" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" t="s">
+        <v>23</v>
+      </c>
+      <c r="F213" t="s">
+        <v>33</v>
+      </c>
+      <c r="G213">
+        <v>19</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214">
+        <v>46.073272</v>
+      </c>
+      <c r="B214">
+        <v>23.580489</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D214" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" t="s">
+        <v>23</v>
+      </c>
+      <c r="F214" t="s">
+        <v>33</v>
+      </c>
+      <c r="G214">
+        <v>20</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215">
+        <v>46.073272</v>
+      </c>
+      <c r="B215">
+        <v>23.580489</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D215" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215" t="s">
+        <v>23</v>
+      </c>
+      <c r="F215" t="s">
+        <v>33</v>
+      </c>
+      <c r="G215">
+        <v>21</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216">
+        <v>46.073272</v>
+      </c>
+      <c r="B216">
+        <v>23.580489</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D216" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" t="s">
+        <v>23</v>
+      </c>
+      <c r="F216" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216">
+        <v>22</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217">
+        <v>46.073272</v>
+      </c>
+      <c r="B217">
+        <v>23.580489</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D217" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" t="s">
+        <v>23</v>
+      </c>
+      <c r="F217" t="s">
+        <v>33</v>
+      </c>
+      <c r="G217">
+        <v>23</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218">
+        <v>46.073272</v>
+      </c>
+      <c r="B218">
+        <v>23.580489</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D218" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218" t="s">
+        <v>24</v>
+      </c>
+      <c r="F218" t="s">
+        <v>34</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219">
+        <v>46.073272</v>
+      </c>
+      <c r="B219">
+        <v>23.580489</v>
+      </c>
+      <c r="C219" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" t="s">
+        <v>24</v>
+      </c>
+      <c r="F219" t="s">
+        <v>34</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220">
+        <v>46.073272</v>
+      </c>
+      <c r="B220">
+        <v>23.580489</v>
+      </c>
+      <c r="C220" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" t="s">
+        <v>24</v>
+      </c>
+      <c r="F220" t="s">
+        <v>34</v>
+      </c>
+      <c r="G220">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221">
+        <v>46.073272</v>
+      </c>
+      <c r="B221">
+        <v>23.580489</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s">
+        <v>24</v>
+      </c>
+      <c r="F221" t="s">
+        <v>34</v>
+      </c>
+      <c r="G221">
+        <v>3</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222">
+        <v>46.073272</v>
+      </c>
+      <c r="B222">
+        <v>23.580489</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D222" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" t="s">
+        <v>24</v>
+      </c>
+      <c r="F222" t="s">
+        <v>34</v>
+      </c>
+      <c r="G222">
+        <v>4</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223">
+        <v>46.073272</v>
+      </c>
+      <c r="B223">
+        <v>23.580489</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D223" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" t="s">
+        <v>24</v>
+      </c>
+      <c r="F223" t="s">
+        <v>34</v>
+      </c>
+      <c r="G223">
+        <v>5</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224">
+        <v>46.073272</v>
+      </c>
+      <c r="B224">
+        <v>23.580489</v>
+      </c>
+      <c r="C224" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D224" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" t="s">
+        <v>24</v>
+      </c>
+      <c r="F224" t="s">
+        <v>34</v>
+      </c>
+      <c r="G224">
+        <v>6</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225">
+        <v>46.073272</v>
+      </c>
+      <c r="B225">
+        <v>23.580489</v>
+      </c>
+      <c r="C225" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D225" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225" t="s">
+        <v>24</v>
+      </c>
+      <c r="F225" t="s">
+        <v>34</v>
+      </c>
+      <c r="G225">
+        <v>7</v>
+      </c>
+      <c r="H225">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I225">
+        <v>61</v>
+      </c>
+      <c r="J225">
+        <v>9.35</v>
+      </c>
+      <c r="K225">
+        <v>4.45</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>4.45</v>
+      </c>
+      <c r="N225" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226">
+        <v>46.073272</v>
+      </c>
+      <c r="B226">
+        <v>23.580489</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D226" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" t="s">
+        <v>24</v>
+      </c>
+      <c r="F226" t="s">
+        <v>34</v>
+      </c>
+      <c r="G226">
+        <v>8</v>
+      </c>
+      <c r="H226">
+        <v>115.04</v>
+      </c>
+      <c r="I226">
+        <v>445.78</v>
+      </c>
+      <c r="J226">
+        <v>50.47</v>
+      </c>
+      <c r="K226">
+        <v>49.85</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>49.85</v>
+      </c>
+      <c r="N226" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227">
+        <v>46.073272</v>
+      </c>
+      <c r="B227">
+        <v>23.580489</v>
+      </c>
+      <c r="C227" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D227" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" t="s">
+        <v>24</v>
+      </c>
+      <c r="F227" t="s">
+        <v>34</v>
+      </c>
+      <c r="G227">
+        <v>9</v>
+      </c>
+      <c r="H227">
+        <v>262.92</v>
+      </c>
+      <c r="I227">
+        <v>646.9299999999999</v>
+      </c>
+      <c r="J227">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K227">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="N227" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="A228">
+        <v>46.073272</v>
+      </c>
+      <c r="B228">
+        <v>23.580489</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D228" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" t="s">
+        <v>24</v>
+      </c>
+      <c r="F228" t="s">
+        <v>34</v>
+      </c>
+      <c r="G228">
+        <v>10</v>
+      </c>
+      <c r="H228">
+        <v>390.07</v>
+      </c>
+      <c r="I228">
+        <v>743.84</v>
+      </c>
+      <c r="J228">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="K228">
+        <v>184.52</v>
+      </c>
+      <c r="L228">
+        <v>29.94</v>
+      </c>
+      <c r="M228">
+        <v>171.36</v>
+      </c>
+      <c r="N228" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="A229">
+        <v>46.073272</v>
+      </c>
+      <c r="B229">
+        <v>23.580489</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D229" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" t="s">
+        <v>24</v>
+      </c>
+      <c r="F229" t="s">
+        <v>34</v>
+      </c>
+      <c r="G229">
+        <v>11</v>
+      </c>
+      <c r="H229">
+        <v>476.95</v>
+      </c>
+      <c r="I229">
+        <v>792.6900000000001</v>
+      </c>
+      <c r="J229">
+        <v>95.64</v>
+      </c>
+      <c r="K229">
+        <v>329.15</v>
+      </c>
+      <c r="L229">
+        <v>182.53</v>
+      </c>
+      <c r="M229">
+        <v>238.96</v>
+      </c>
+      <c r="N229" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230">
+        <v>46.073272</v>
+      </c>
+      <c r="B230">
+        <v>23.580489</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D230" t="s">
+        <v>14</v>
+      </c>
+      <c r="E230" t="s">
+        <v>24</v>
+      </c>
+      <c r="F230" t="s">
+        <v>34</v>
+      </c>
+      <c r="G230">
+        <v>12</v>
+      </c>
+      <c r="H230">
+        <v>513.27</v>
+      </c>
+      <c r="I230">
+        <v>810.39</v>
+      </c>
+      <c r="J230">
+        <v>98.59</v>
+      </c>
+      <c r="K230">
+        <v>427.37</v>
+      </c>
+      <c r="L230">
+        <v>377.21</v>
+      </c>
+      <c r="M230">
+        <v>230.97</v>
+      </c>
+      <c r="N230" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231">
+        <v>46.073272</v>
+      </c>
+      <c r="B231">
+        <v>23.580489</v>
+      </c>
+      <c r="C231" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
+        <v>24</v>
+      </c>
+      <c r="F231" t="s">
+        <v>34</v>
+      </c>
+      <c r="G231">
+        <v>13</v>
+      </c>
+      <c r="H231">
+        <v>495.07</v>
+      </c>
+      <c r="I231">
+        <v>801.75</v>
+      </c>
+      <c r="J231">
+        <v>97.11</v>
+      </c>
+      <c r="K231">
+        <v>453.23</v>
+      </c>
+      <c r="L231">
+        <v>591.64</v>
+      </c>
+      <c r="M231">
+        <v>154.99</v>
+      </c>
+      <c r="N231" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232">
+        <v>46.073272</v>
+      </c>
+      <c r="B232">
+        <v>23.580489</v>
+      </c>
+      <c r="C232" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D232" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" t="s">
+        <v>24</v>
+      </c>
+      <c r="F232" t="s">
+        <v>34</v>
+      </c>
+      <c r="G232">
+        <v>14</v>
+      </c>
+      <c r="H232">
+        <v>424.3</v>
+      </c>
+      <c r="I232">
+        <v>764.45</v>
+      </c>
+      <c r="J232">
+        <v>91.05</v>
+      </c>
+      <c r="K232">
+        <v>415.01</v>
+      </c>
+      <c r="L232">
+        <v>709.21</v>
+      </c>
+      <c r="M232">
+        <v>100.06</v>
+      </c>
+      <c r="N232" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233">
+        <v>46.073272</v>
+      </c>
+      <c r="B233">
+        <v>23.580489</v>
+      </c>
+      <c r="C233" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D233" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" t="s">
+        <v>24</v>
+      </c>
+      <c r="F233" t="s">
+        <v>34</v>
+      </c>
+      <c r="G233">
+        <v>15</v>
+      </c>
+      <c r="H233">
+        <v>309.05</v>
+      </c>
+      <c r="I233">
+        <v>686.88</v>
+      </c>
+      <c r="J233">
+        <v>79.51000000000001</v>
+      </c>
+      <c r="K233">
+        <v>309.05</v>
+      </c>
+      <c r="L233">
+        <v>668.8200000000001</v>
+      </c>
+      <c r="M233">
+        <v>77.95</v>
+      </c>
+      <c r="N233" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234">
+        <v>46.073272</v>
+      </c>
+      <c r="B234">
+        <v>23.580489</v>
+      </c>
+      <c r="C234" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D234" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" t="s">
+        <v>24</v>
+      </c>
+      <c r="F234" t="s">
+        <v>34</v>
+      </c>
+      <c r="G234">
+        <v>16</v>
+      </c>
+      <c r="H234">
+        <v>165.01</v>
+      </c>
+      <c r="I234">
+        <v>532.75</v>
+      </c>
+      <c r="J234">
+        <v>59.97</v>
+      </c>
+      <c r="K234">
+        <v>165.01</v>
+      </c>
+      <c r="L234">
+        <v>508.91</v>
+      </c>
+      <c r="M234">
+        <v>55.76</v>
+      </c>
+      <c r="N234" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235">
+        <v>46.073272</v>
+      </c>
+      <c r="B235">
+        <v>23.580489</v>
+      </c>
+      <c r="C235" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D235" t="s">
+        <v>14</v>
+      </c>
+      <c r="E235" t="s">
+        <v>24</v>
+      </c>
+      <c r="F235" t="s">
+        <v>34</v>
+      </c>
+      <c r="G235">
+        <v>17</v>
+      </c>
+      <c r="H235">
+        <v>30.45</v>
+      </c>
+      <c r="I235">
+        <v>176.86</v>
+      </c>
+      <c r="J235">
+        <v>22.28</v>
+      </c>
+      <c r="K235">
+        <v>30.45</v>
+      </c>
+      <c r="L235">
+        <v>114.79</v>
+      </c>
+      <c r="M235">
+        <v>18.91</v>
+      </c>
+      <c r="N235" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236">
+        <v>46.073272</v>
+      </c>
+      <c r="B236">
+        <v>23.580489</v>
+      </c>
+      <c r="C236" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D236" t="s">
+        <v>14</v>
+      </c>
+      <c r="E236" t="s">
+        <v>24</v>
+      </c>
+      <c r="F236" t="s">
+        <v>34</v>
+      </c>
+      <c r="G236">
+        <v>18</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="A237">
+        <v>46.073272</v>
+      </c>
+      <c r="B237">
+        <v>23.580489</v>
+      </c>
+      <c r="C237" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D237" t="s">
+        <v>14</v>
+      </c>
+      <c r="E237" t="s">
+        <v>24</v>
+      </c>
+      <c r="F237" t="s">
+        <v>34</v>
+      </c>
+      <c r="G237">
+        <v>19</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238">
+        <v>46.073272</v>
+      </c>
+      <c r="B238">
+        <v>23.580489</v>
+      </c>
+      <c r="C238" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D238" t="s">
+        <v>14</v>
+      </c>
+      <c r="E238" t="s">
+        <v>24</v>
+      </c>
+      <c r="F238" t="s">
+        <v>34</v>
+      </c>
+      <c r="G238">
+        <v>20</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239">
+        <v>46.073272</v>
+      </c>
+      <c r="B239">
+        <v>23.580489</v>
+      </c>
+      <c r="C239" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D239" t="s">
+        <v>14</v>
+      </c>
+      <c r="E239" t="s">
+        <v>24</v>
+      </c>
+      <c r="F239" t="s">
+        <v>34</v>
+      </c>
+      <c r="G239">
+        <v>21</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240">
+        <v>46.073272</v>
+      </c>
+      <c r="B240">
+        <v>23.580489</v>
+      </c>
+      <c r="C240" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D240" t="s">
+        <v>14</v>
+      </c>
+      <c r="E240" t="s">
+        <v>24</v>
+      </c>
+      <c r="F240" t="s">
+        <v>34</v>
+      </c>
+      <c r="G240">
+        <v>22</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
+      <c r="A241">
+        <v>46.073272</v>
+      </c>
+      <c r="B241">
+        <v>23.580489</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D241" t="s">
+        <v>14</v>
+      </c>
+      <c r="E241" t="s">
+        <v>24</v>
+      </c>
+      <c r="F241" t="s">
+        <v>34</v>
+      </c>
+      <c r="G241">
+        <v>23</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Solina/Production/Input/Concatenated_Hourly_GHI.xlsx
+++ b/Solina/Production/Input/Concatenated_Hourly_GHI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="353">
   <si>
     <t>lat</t>
   </si>
@@ -91,6 +91,15 @@
     <t>2024-02-16T07:27:37</t>
   </si>
   <si>
+    <t>2024-02-17T07:26:01</t>
+  </si>
+  <si>
+    <t>2024-02-18T07:24:25</t>
+  </si>
+  <si>
+    <t>2024-02-19T07:22:47</t>
+  </si>
+  <si>
     <t>2024-02-07T17:39:08</t>
   </si>
   <si>
@@ -121,6 +130,15 @@
     <t>2024-02-16T17:52:32</t>
   </si>
   <si>
+    <t>2024-02-17T17:54:00</t>
+  </si>
+  <si>
+    <t>2024-02-18T17:55:28</t>
+  </si>
+  <si>
+    <t>2024-02-19T17:56:56</t>
+  </si>
+  <si>
     <t>07.02.20240</t>
   </si>
   <si>
@@ -839,6 +857,222 @@
   </si>
   <si>
     <t>16.02.202423</t>
+  </si>
+  <si>
+    <t>17.02.20240</t>
+  </si>
+  <si>
+    <t>17.02.20241</t>
+  </si>
+  <si>
+    <t>17.02.20242</t>
+  </si>
+  <si>
+    <t>17.02.20243</t>
+  </si>
+  <si>
+    <t>17.02.20244</t>
+  </si>
+  <si>
+    <t>17.02.20245</t>
+  </si>
+  <si>
+    <t>17.02.20246</t>
+  </si>
+  <si>
+    <t>17.02.20247</t>
+  </si>
+  <si>
+    <t>17.02.20248</t>
+  </si>
+  <si>
+    <t>17.02.20249</t>
+  </si>
+  <si>
+    <t>17.02.202410</t>
+  </si>
+  <si>
+    <t>17.02.202411</t>
+  </si>
+  <si>
+    <t>17.02.202412</t>
+  </si>
+  <si>
+    <t>17.02.202413</t>
+  </si>
+  <si>
+    <t>17.02.202414</t>
+  </si>
+  <si>
+    <t>17.02.202415</t>
+  </si>
+  <si>
+    <t>17.02.202416</t>
+  </si>
+  <si>
+    <t>17.02.202417</t>
+  </si>
+  <si>
+    <t>17.02.202418</t>
+  </si>
+  <si>
+    <t>17.02.202419</t>
+  </si>
+  <si>
+    <t>17.02.202420</t>
+  </si>
+  <si>
+    <t>17.02.202421</t>
+  </si>
+  <si>
+    <t>17.02.202422</t>
+  </si>
+  <si>
+    <t>17.02.202423</t>
+  </si>
+  <si>
+    <t>18.02.20240</t>
+  </si>
+  <si>
+    <t>18.02.20241</t>
+  </si>
+  <si>
+    <t>18.02.20242</t>
+  </si>
+  <si>
+    <t>18.02.20243</t>
+  </si>
+  <si>
+    <t>18.02.20244</t>
+  </si>
+  <si>
+    <t>18.02.20245</t>
+  </si>
+  <si>
+    <t>18.02.20246</t>
+  </si>
+  <si>
+    <t>18.02.20247</t>
+  </si>
+  <si>
+    <t>18.02.20248</t>
+  </si>
+  <si>
+    <t>18.02.20249</t>
+  </si>
+  <si>
+    <t>18.02.202410</t>
+  </si>
+  <si>
+    <t>18.02.202411</t>
+  </si>
+  <si>
+    <t>18.02.202412</t>
+  </si>
+  <si>
+    <t>18.02.202413</t>
+  </si>
+  <si>
+    <t>18.02.202414</t>
+  </si>
+  <si>
+    <t>18.02.202415</t>
+  </si>
+  <si>
+    <t>18.02.202416</t>
+  </si>
+  <si>
+    <t>18.02.202417</t>
+  </si>
+  <si>
+    <t>18.02.202418</t>
+  </si>
+  <si>
+    <t>18.02.202419</t>
+  </si>
+  <si>
+    <t>18.02.202420</t>
+  </si>
+  <si>
+    <t>18.02.202421</t>
+  </si>
+  <si>
+    <t>18.02.202422</t>
+  </si>
+  <si>
+    <t>18.02.202423</t>
+  </si>
+  <si>
+    <t>19.02.20240</t>
+  </si>
+  <si>
+    <t>19.02.20241</t>
+  </si>
+  <si>
+    <t>19.02.20242</t>
+  </si>
+  <si>
+    <t>19.02.20243</t>
+  </si>
+  <si>
+    <t>19.02.20244</t>
+  </si>
+  <si>
+    <t>19.02.20245</t>
+  </si>
+  <si>
+    <t>19.02.20246</t>
+  </si>
+  <si>
+    <t>19.02.20247</t>
+  </si>
+  <si>
+    <t>19.02.20248</t>
+  </si>
+  <si>
+    <t>19.02.20249</t>
+  </si>
+  <si>
+    <t>19.02.202410</t>
+  </si>
+  <si>
+    <t>19.02.202411</t>
+  </si>
+  <si>
+    <t>19.02.202412</t>
+  </si>
+  <si>
+    <t>19.02.202413</t>
+  </si>
+  <si>
+    <t>19.02.202414</t>
+  </si>
+  <si>
+    <t>19.02.202415</t>
+  </si>
+  <si>
+    <t>19.02.202416</t>
+  </si>
+  <si>
+    <t>19.02.202417</t>
+  </si>
+  <si>
+    <t>19.02.202418</t>
+  </si>
+  <si>
+    <t>19.02.202419</t>
+  </si>
+  <si>
+    <t>19.02.202420</t>
+  </si>
+  <si>
+    <t>19.02.202421</t>
+  </si>
+  <si>
+    <t>19.02.202422</t>
+  </si>
+  <si>
+    <t>19.02.202423</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N241"/>
+  <dimension ref="A1:N313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1291,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1311,7 +1545,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1335,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1355,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1379,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1399,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1423,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1443,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1467,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1487,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1511,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1531,7 +1765,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1555,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1575,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -1599,7 +1833,7 @@
         <v>0.43</v>
       </c>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1619,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1643,7 +1877,7 @@
         <v>20.78</v>
       </c>
       <c r="N10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1663,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -1687,7 +1921,7 @@
         <v>54.76</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1707,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -1731,7 +1965,7 @@
         <v>85.56</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1751,7 +1985,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1775,7 +2009,7 @@
         <v>106.74</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1795,7 +2029,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -1819,7 +2053,7 @@
         <v>115.62</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1839,7 +2073,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -1863,7 +2097,7 @@
         <v>111.16</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1883,7 +2117,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -1907,7 +2141,7 @@
         <v>93.88</v>
       </c>
       <c r="N16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1927,7 +2161,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -1951,7 +2185,7 @@
         <v>65.87</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1971,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -1995,7 +2229,7 @@
         <v>31.39</v>
       </c>
       <c r="N18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2015,7 +2249,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -2039,7 +2273,7 @@
         <v>3.32</v>
       </c>
       <c r="N19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2059,7 +2293,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G20">
         <v>18</v>
@@ -2083,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2103,7 +2337,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -2127,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2147,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -2171,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2191,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G23">
         <v>21</v>
@@ -2215,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2235,7 +2469,7 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>22</v>
@@ -2259,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2279,7 +2513,7 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -2303,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2323,7 +2557,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2347,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2367,7 +2601,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2391,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2411,7 +2645,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2435,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2455,7 +2689,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2479,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2499,7 +2733,7 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -2523,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2543,7 +2777,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -2567,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2587,7 +2821,7 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -2611,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2631,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -2655,7 +2889,7 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2675,7 +2909,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>8</v>
@@ -2699,7 +2933,7 @@
         <v>31.96</v>
       </c>
       <c r="N34" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2719,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G35">
         <v>9</v>
@@ -2743,7 +2977,7 @@
         <v>60.34</v>
       </c>
       <c r="N35" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2763,7 +2997,7 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -2787,7 +3021,7 @@
         <v>106.39</v>
       </c>
       <c r="N36" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2807,7 +3041,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>11</v>
@@ -2831,7 +3065,7 @@
         <v>145.31</v>
       </c>
       <c r="N37" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2851,7 +3085,7 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G38">
         <v>12</v>
@@ -2875,7 +3109,7 @@
         <v>169.54</v>
       </c>
       <c r="N38" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2895,7 +3129,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G39">
         <v>13</v>
@@ -2919,7 +3153,7 @@
         <v>166.83</v>
       </c>
       <c r="N39" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2939,7 +3173,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G40">
         <v>14</v>
@@ -2963,7 +3197,7 @@
         <v>152.76</v>
       </c>
       <c r="N40" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2983,7 +3217,7 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G41">
         <v>15</v>
@@ -3007,7 +3241,7 @@
         <v>128.49</v>
       </c>
       <c r="N41" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3027,7 +3261,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>16</v>
@@ -3051,7 +3285,7 @@
         <v>66.88</v>
       </c>
       <c r="N42" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3071,7 +3305,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G43">
         <v>17</v>
@@ -3095,7 +3329,7 @@
         <v>10.45</v>
       </c>
       <c r="N43" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3115,7 +3349,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G44">
         <v>18</v>
@@ -3139,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3159,7 +3393,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>19</v>
@@ -3183,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3203,7 +3437,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -3227,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3247,7 +3481,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>21</v>
@@ -3271,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3291,7 +3525,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>22</v>
@@ -3315,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3335,7 +3569,7 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>23</v>
@@ -3359,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3379,7 +3613,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3403,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3423,7 +3657,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3447,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3467,7 +3701,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3491,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3511,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -3535,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3555,7 +3789,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -3579,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3599,7 +3833,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -3623,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3643,7 +3877,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -3667,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3687,7 +3921,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -3711,7 +3945,7 @@
         <v>0.78</v>
       </c>
       <c r="N57" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3731,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G58">
         <v>8</v>
@@ -3755,7 +3989,7 @@
         <v>24.48</v>
       </c>
       <c r="N58" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3775,7 +4009,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>9</v>
@@ -3799,7 +4033,7 @@
         <v>61.64</v>
       </c>
       <c r="N59" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3819,7 +4053,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G60">
         <v>10</v>
@@ -3843,7 +4077,7 @@
         <v>102.45</v>
       </c>
       <c r="N60" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3863,7 +4097,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>11</v>
@@ -3887,7 +4121,7 @@
         <v>121.94</v>
       </c>
       <c r="N61" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3907,7 +4141,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>12</v>
@@ -3931,7 +4165,7 @@
         <v>128.88</v>
       </c>
       <c r="N62" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3951,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G63">
         <v>13</v>
@@ -3975,7 +4209,7 @@
         <v>122.13</v>
       </c>
       <c r="N63" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3995,7 +4229,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>14</v>
@@ -4019,7 +4253,7 @@
         <v>100.55</v>
       </c>
       <c r="N64" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4039,7 +4273,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>15</v>
@@ -4063,7 +4297,7 @@
         <v>68.43000000000001</v>
       </c>
       <c r="N65" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4083,7 +4317,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>16</v>
@@ -4107,7 +4341,7 @@
         <v>33.57</v>
       </c>
       <c r="N66" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4127,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>17</v>
@@ -4151,7 +4385,7 @@
         <v>4.05</v>
       </c>
       <c r="N67" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4171,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>18</v>
@@ -4195,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4215,7 +4449,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G69">
         <v>19</v>
@@ -4239,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4259,7 +4493,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G70">
         <v>20</v>
@@ -4283,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4303,7 +4537,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>21</v>
@@ -4327,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4347,7 +4581,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>22</v>
@@ -4371,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4391,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G73">
         <v>23</v>
@@ -4415,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4435,7 +4669,7 @@
         <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4459,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4479,7 +4713,7 @@
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -4503,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4523,7 +4757,7 @@
         <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -4547,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4567,7 +4801,7 @@
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -4591,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4611,7 +4845,7 @@
         <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -4635,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4655,7 +4889,7 @@
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -4679,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4699,7 +4933,7 @@
         <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>6</v>
@@ -4723,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4743,7 +4977,7 @@
         <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>7</v>
@@ -4767,7 +5001,7 @@
         <v>0.75</v>
       </c>
       <c r="N81" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4787,7 +5021,7 @@
         <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G82">
         <v>8</v>
@@ -4811,7 +5045,7 @@
         <v>22.64</v>
       </c>
       <c r="N82" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4831,7 +5065,7 @@
         <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G83">
         <v>9</v>
@@ -4855,7 +5089,7 @@
         <v>58.31</v>
       </c>
       <c r="N83" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4875,7 +5109,7 @@
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>10</v>
@@ -4899,7 +5133,7 @@
         <v>89.48</v>
       </c>
       <c r="N84" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4919,7 +5153,7 @@
         <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G85">
         <v>11</v>
@@ -4943,7 +5177,7 @@
         <v>110.88</v>
       </c>
       <c r="N85" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4963,7 +5197,7 @@
         <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>12</v>
@@ -4987,7 +5221,7 @@
         <v>119.86</v>
       </c>
       <c r="N86" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5007,7 +5241,7 @@
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>13</v>
@@ -5031,7 +5265,7 @@
         <v>115.4</v>
       </c>
       <c r="N87" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5051,7 +5285,7 @@
         <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>14</v>
@@ -5075,7 +5309,7 @@
         <v>97.98999999999999</v>
       </c>
       <c r="N88" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5095,7 +5329,7 @@
         <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>15</v>
@@ -5119,7 +5353,7 @@
         <v>69.7</v>
       </c>
       <c r="N89" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5139,7 +5373,7 @@
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>16</v>
@@ -5163,7 +5397,7 @@
         <v>34.66</v>
       </c>
       <c r="N90" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5183,7 +5417,7 @@
         <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G91">
         <v>17</v>
@@ -5207,7 +5441,7 @@
         <v>4.44</v>
       </c>
       <c r="N91" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5227,7 +5461,7 @@
         <v>18</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G92">
         <v>18</v>
@@ -5251,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5271,7 +5505,7 @@
         <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>19</v>
@@ -5295,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5315,7 +5549,7 @@
         <v>18</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>20</v>
@@ -5339,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5359,7 +5593,7 @@
         <v>18</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>21</v>
@@ -5383,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5403,7 +5637,7 @@
         <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>22</v>
@@ -5427,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5447,7 +5681,7 @@
         <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>23</v>
@@ -5471,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5491,7 +5725,7 @@
         <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5515,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5535,7 +5769,7 @@
         <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5559,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5579,7 +5813,7 @@
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -5603,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5623,7 +5857,7 @@
         <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -5647,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5667,7 +5901,7 @@
         <v>19</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G102">
         <v>4</v>
@@ -5691,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5711,7 +5945,7 @@
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G103">
         <v>5</v>
@@ -5735,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5755,7 +5989,7 @@
         <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>6</v>
@@ -5779,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5799,7 +6033,7 @@
         <v>19</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>7</v>
@@ -5823,7 +6057,7 @@
         <v>0.9</v>
       </c>
       <c r="N105" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5843,7 +6077,7 @@
         <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>8</v>
@@ -5867,7 +6101,7 @@
         <v>23.62</v>
       </c>
       <c r="N106" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5887,7 +6121,7 @@
         <v>19</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>9</v>
@@ -5911,7 +6145,7 @@
         <v>59.54</v>
       </c>
       <c r="N107" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5931,7 +6165,7 @@
         <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -5955,7 +6189,7 @@
         <v>90.83</v>
       </c>
       <c r="N108" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5975,7 +6209,7 @@
         <v>19</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G109">
         <v>11</v>
@@ -5999,7 +6233,7 @@
         <v>112.3</v>
       </c>
       <c r="N109" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6019,7 +6253,7 @@
         <v>19</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>12</v>
@@ -6043,7 +6277,7 @@
         <v>121.31</v>
       </c>
       <c r="N110" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6063,7 +6297,7 @@
         <v>19</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>13</v>
@@ -6087,7 +6321,7 @@
         <v>116.83</v>
       </c>
       <c r="N111" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6107,7 +6341,7 @@
         <v>19</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>14</v>
@@ -6131,7 +6365,7 @@
         <v>99.38</v>
       </c>
       <c r="N112" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6151,7 +6385,7 @@
         <v>19</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G113">
         <v>15</v>
@@ -6175,7 +6409,7 @@
         <v>71</v>
       </c>
       <c r="N113" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6195,7 +6429,7 @@
         <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G114">
         <v>16</v>
@@ -6219,7 +6453,7 @@
         <v>35.77</v>
       </c>
       <c r="N114" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6239,7 +6473,7 @@
         <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G115">
         <v>17</v>
@@ -6263,7 +6497,7 @@
         <v>5.06</v>
       </c>
       <c r="N115" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6283,7 +6517,7 @@
         <v>19</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>18</v>
@@ -6307,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6327,7 +6561,7 @@
         <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>19</v>
@@ -6351,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6371,7 +6605,7 @@
         <v>19</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>20</v>
@@ -6395,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6415,7 +6649,7 @@
         <v>19</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>21</v>
@@ -6439,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6459,7 +6693,7 @@
         <v>19</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G120">
         <v>22</v>
@@ -6483,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6503,7 +6737,7 @@
         <v>19</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G121">
         <v>23</v>
@@ -6527,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6547,7 +6781,7 @@
         <v>20</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6571,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6591,7 +6825,7 @@
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -6615,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6635,7 +6869,7 @@
         <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -6659,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="N124" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6679,7 +6913,7 @@
         <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -6703,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6723,7 +6957,7 @@
         <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -6747,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6767,7 +7001,7 @@
         <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G127">
         <v>5</v>
@@ -6791,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6811,7 +7045,7 @@
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>6</v>
@@ -6835,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6855,7 +7089,7 @@
         <v>20</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>7</v>
@@ -6879,7 +7113,7 @@
         <v>3</v>
       </c>
       <c r="N129" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6899,7 +7133,7 @@
         <v>20</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>8</v>
@@ -6923,7 +7157,7 @@
         <v>47.05</v>
       </c>
       <c r="N130" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6943,7 +7177,7 @@
         <v>20</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>9</v>
@@ -6967,7 +7201,7 @@
         <v>60.75</v>
       </c>
       <c r="N131" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6987,7 +7221,7 @@
         <v>20</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -7011,7 +7245,7 @@
         <v>92.16</v>
       </c>
       <c r="N132" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7031,7 +7265,7 @@
         <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G133">
         <v>11</v>
@@ -7055,7 +7289,7 @@
         <v>113.69</v>
       </c>
       <c r="N133" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7075,7 +7309,7 @@
         <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>12</v>
@@ -7099,7 +7333,7 @@
         <v>122.71</v>
       </c>
       <c r="N134" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -7119,7 +7353,7 @@
         <v>20</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G135">
         <v>13</v>
@@ -7143,7 +7377,7 @@
         <v>118.22</v>
       </c>
       <c r="N135" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7163,7 +7397,7 @@
         <v>20</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G136">
         <v>14</v>
@@ -7187,7 +7421,7 @@
         <v>100.72</v>
       </c>
       <c r="N136" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -7207,7 +7441,7 @@
         <v>20</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>15</v>
@@ -7231,7 +7465,7 @@
         <v>72.25</v>
       </c>
       <c r="N137" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7251,7 +7485,7 @@
         <v>20</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>16</v>
@@ -7275,7 +7509,7 @@
         <v>36.86</v>
       </c>
       <c r="N138" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -7295,7 +7529,7 @@
         <v>20</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>17</v>
@@ -7319,7 +7553,7 @@
         <v>5.47</v>
       </c>
       <c r="N139" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7339,7 +7573,7 @@
         <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G140">
         <v>18</v>
@@ -7363,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7383,7 +7617,7 @@
         <v>20</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>19</v>
@@ -7407,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7427,7 +7661,7 @@
         <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>20</v>
@@ -7451,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -7471,7 +7705,7 @@
         <v>20</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>21</v>
@@ -7495,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -7515,7 +7749,7 @@
         <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>22</v>
@@ -7539,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7559,7 +7793,7 @@
         <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>23</v>
@@ -7583,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7603,7 +7837,7 @@
         <v>21</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7627,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7647,7 +7881,7 @@
         <v>21</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -7671,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7691,7 +7925,7 @@
         <v>21</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -7715,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7735,7 +7969,7 @@
         <v>21</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -7759,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7779,7 +8013,7 @@
         <v>21</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G150">
         <v>4</v>
@@ -7803,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7823,7 +8057,7 @@
         <v>21</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>5</v>
@@ -7847,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7867,7 +8101,7 @@
         <v>21</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G152">
         <v>6</v>
@@ -7891,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7911,7 +8145,7 @@
         <v>21</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>7</v>
@@ -7935,7 +8169,7 @@
         <v>1.26</v>
       </c>
       <c r="N153" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7955,7 +8189,7 @@
         <v>21</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>8</v>
@@ -7979,7 +8213,7 @@
         <v>25.62</v>
       </c>
       <c r="N154" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7999,7 +8233,7 @@
         <v>21</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G155">
         <v>9</v>
@@ -8023,7 +8257,7 @@
         <v>61.98</v>
       </c>
       <c r="N155" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -8043,7 +8277,7 @@
         <v>21</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G156">
         <v>10</v>
@@ -8067,7 +8301,7 @@
         <v>93.48</v>
       </c>
       <c r="N156" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -8087,7 +8321,7 @@
         <v>21</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G157">
         <v>11</v>
@@ -8111,7 +8345,7 @@
         <v>115.06</v>
       </c>
       <c r="N157" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -8131,7 +8365,7 @@
         <v>21</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G158">
         <v>12</v>
@@ -8155,7 +8389,7 @@
         <v>124.09</v>
       </c>
       <c r="N158" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -8175,7 +8409,7 @@
         <v>21</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G159">
         <v>13</v>
@@ -8199,7 +8433,7 @@
         <v>119.59</v>
       </c>
       <c r="N159" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8219,7 +8453,7 @@
         <v>21</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>14</v>
@@ -8243,7 +8477,7 @@
         <v>102.04</v>
       </c>
       <c r="N160" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8263,7 +8497,7 @@
         <v>21</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>15</v>
@@ -8287,7 +8521,7 @@
         <v>73.48</v>
       </c>
       <c r="N161" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8307,7 +8541,7 @@
         <v>21</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>16</v>
@@ -8331,7 +8565,7 @@
         <v>37.94</v>
       </c>
       <c r="N162" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -8351,7 +8585,7 @@
         <v>21</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>17</v>
@@ -8375,7 +8609,7 @@
         <v>5.97</v>
       </c>
       <c r="N163" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -8395,7 +8629,7 @@
         <v>21</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G164">
         <v>18</v>
@@ -8419,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8439,7 +8673,7 @@
         <v>21</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G165">
         <v>19</v>
@@ -8463,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -8483,7 +8717,7 @@
         <v>21</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G166">
         <v>20</v>
@@ -8507,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -8527,7 +8761,7 @@
         <v>21</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G167">
         <v>21</v>
@@ -8551,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -8571,7 +8805,7 @@
         <v>21</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G168">
         <v>22</v>
@@ -8595,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="N168" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -8615,7 +8849,7 @@
         <v>21</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G169">
         <v>23</v>
@@ -8639,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="N169" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -8659,7 +8893,7 @@
         <v>22</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -8683,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="N170" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -8703,7 +8937,7 @@
         <v>22</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -8727,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="N171" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -8747,7 +8981,7 @@
         <v>22</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -8771,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -8791,7 +9025,7 @@
         <v>22</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -8815,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -8835,7 +9069,7 @@
         <v>22</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G174">
         <v>4</v>
@@ -8859,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -8879,7 +9113,7 @@
         <v>22</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>5</v>
@@ -8903,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -8923,7 +9157,7 @@
         <v>22</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G176">
         <v>6</v>
@@ -8947,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8967,7 +9201,7 @@
         <v>22</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G177">
         <v>7</v>
@@ -8991,7 +9225,7 @@
         <v>2.88</v>
       </c>
       <c r="N177" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -9011,7 +9245,7 @@
         <v>22</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>8</v>
@@ -9035,7 +9269,7 @@
         <v>52.77</v>
       </c>
       <c r="N178" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -9055,7 +9289,7 @@
         <v>22</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G179">
         <v>9</v>
@@ -9079,7 +9313,7 @@
         <v>121.19</v>
       </c>
       <c r="N179" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -9099,7 +9333,7 @@
         <v>22</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>10</v>
@@ -9123,7 +9357,7 @@
         <v>178.87</v>
       </c>
       <c r="N180" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -9143,7 +9377,7 @@
         <v>22</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G181">
         <v>11</v>
@@ -9167,7 +9401,7 @@
         <v>208.56</v>
       </c>
       <c r="N181" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9187,7 +9421,7 @@
         <v>22</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G182">
         <v>12</v>
@@ -9211,7 +9445,7 @@
         <v>219.06</v>
       </c>
       <c r="N182" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -9231,7 +9465,7 @@
         <v>22</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G183">
         <v>13</v>
@@ -9255,7 +9489,7 @@
         <v>209.89</v>
       </c>
       <c r="N183" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -9275,7 +9509,7 @@
         <v>22</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G184">
         <v>14</v>
@@ -9299,7 +9533,7 @@
         <v>167.03</v>
       </c>
       <c r="N184" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9319,7 +9553,7 @@
         <v>22</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G185">
         <v>15</v>
@@ -9343,7 +9577,7 @@
         <v>103.08</v>
       </c>
       <c r="N185" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -9363,7 +9597,7 @@
         <v>22</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G186">
         <v>16</v>
@@ -9387,7 +9621,7 @@
         <v>52.4</v>
       </c>
       <c r="N186" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -9407,7 +9641,7 @@
         <v>22</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G187">
         <v>17</v>
@@ -9431,7 +9665,7 @@
         <v>9.08</v>
       </c>
       <c r="N187" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9451,7 +9685,7 @@
         <v>22</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G188">
         <v>18</v>
@@ -9475,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9495,7 +9729,7 @@
         <v>22</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G189">
         <v>19</v>
@@ -9519,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="N189" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -9539,7 +9773,7 @@
         <v>22</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G190">
         <v>20</v>
@@ -9563,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="N190" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -9583,7 +9817,7 @@
         <v>22</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G191">
         <v>21</v>
@@ -9607,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="N191" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -9627,7 +9861,7 @@
         <v>22</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G192">
         <v>22</v>
@@ -9651,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="N192" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9671,7 +9905,7 @@
         <v>22</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G193">
         <v>23</v>
@@ -9695,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="N193" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -9715,7 +9949,7 @@
         <v>23</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -9739,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="N194" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -9759,7 +9993,7 @@
         <v>23</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -9783,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="N195" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9803,7 +10037,7 @@
         <v>23</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -9827,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="N196" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9847,7 +10081,7 @@
         <v>23</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -9871,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="N197" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9891,7 +10125,7 @@
         <v>23</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G198">
         <v>4</v>
@@ -9915,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="N198" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9935,7 +10169,7 @@
         <v>23</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G199">
         <v>5</v>
@@ -9959,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="N199" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9979,7 +10213,7 @@
         <v>23</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G200">
         <v>6</v>
@@ -10003,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="N200" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -10023,7 +10257,7 @@
         <v>23</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G201">
         <v>7</v>
@@ -10032,22 +10266,22 @@
         <v>7.03</v>
       </c>
       <c r="I201">
-        <v>53.18</v>
+        <v>53.17</v>
       </c>
       <c r="J201">
         <v>8.470000000000001</v>
       </c>
       <c r="K201">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
       <c r="L201">
-        <v>5.18</v>
+        <v>5.23</v>
       </c>
       <c r="M201">
         <v>6.74</v>
       </c>
       <c r="N201" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -10067,31 +10301,31 @@
         <v>23</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G202">
         <v>8</v>
       </c>
       <c r="H202">
-        <v>110.67</v>
+        <v>110.66</v>
       </c>
       <c r="I202">
-        <v>436.94</v>
+        <v>436.9</v>
       </c>
       <c r="J202">
         <v>49.52</v>
       </c>
       <c r="K202">
-        <v>110.62</v>
+        <v>110.65</v>
       </c>
       <c r="L202">
-        <v>397.67</v>
+        <v>397.93</v>
       </c>
       <c r="M202">
-        <v>45.26</v>
+        <v>45.25</v>
       </c>
       <c r="N202" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -10111,31 +10345,31 @@
         <v>23</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G203">
         <v>9</v>
       </c>
       <c r="H203">
-        <v>257.7</v>
+        <v>257.69</v>
       </c>
       <c r="I203">
-        <v>642.37</v>
+        <v>642.3099999999999</v>
       </c>
       <c r="J203">
         <v>73.45</v>
       </c>
       <c r="K203">
-        <v>257.69</v>
+        <v>257.67</v>
       </c>
       <c r="L203">
-        <v>623.08</v>
+        <v>623</v>
       </c>
       <c r="M203">
-        <v>71.06999999999999</v>
+        <v>71.08</v>
       </c>
       <c r="N203" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -10155,31 +10389,31 @@
         <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G204">
         <v>10</v>
       </c>
       <c r="H204">
-        <v>384.47</v>
+        <v>384.46</v>
       </c>
       <c r="I204">
-        <v>740.71</v>
+        <v>740.67</v>
       </c>
       <c r="J204">
         <v>87.34999999999999</v>
       </c>
       <c r="K204">
-        <v>384.45</v>
+        <v>384.43</v>
       </c>
       <c r="L204">
-        <v>724.48</v>
+        <v>724.4400000000001</v>
       </c>
       <c r="M204">
         <v>86.76000000000001</v>
       </c>
       <c r="N204" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -10199,31 +10433,31 @@
         <v>23</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G205">
         <v>11</v>
       </c>
       <c r="H205">
-        <v>471.17</v>
+        <v>471.16</v>
       </c>
       <c r="I205">
-        <v>790.17</v>
+        <v>790.14</v>
       </c>
       <c r="J205">
-        <v>95.14</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="K205">
-        <v>471.15</v>
+        <v>471.14</v>
       </c>
       <c r="L205">
-        <v>766.53</v>
+        <v>766.51</v>
       </c>
       <c r="M205">
-        <v>99.56</v>
+        <v>99.55</v>
       </c>
       <c r="N205" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -10243,31 +10477,31 @@
         <v>23</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G206">
         <v>12</v>
       </c>
       <c r="H206">
-        <v>507.45</v>
+        <v>507.44</v>
       </c>
       <c r="I206">
-        <v>808.08</v>
+        <v>808.0599999999999</v>
       </c>
       <c r="J206">
         <v>98.11</v>
       </c>
       <c r="K206">
-        <v>507.44</v>
+        <v>507.42</v>
       </c>
       <c r="L206">
-        <v>780.15</v>
+        <v>780.12</v>
       </c>
       <c r="M206">
         <v>105.47</v>
       </c>
       <c r="N206" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -10287,31 +10521,31 @@
         <v>23</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G207">
         <v>13</v>
       </c>
       <c r="H207">
-        <v>489.34</v>
+        <v>489.33</v>
       </c>
       <c r="I207">
-        <v>799.39</v>
+        <v>799.36</v>
       </c>
       <c r="J207">
         <v>96.63</v>
       </c>
       <c r="K207">
-        <v>489.32</v>
+        <v>489.3</v>
       </c>
       <c r="L207">
-        <v>773.62</v>
+        <v>773.5599999999999</v>
       </c>
       <c r="M207">
-        <v>102.49</v>
+        <v>102.5</v>
       </c>
       <c r="N207" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -10331,31 +10565,31 @@
         <v>23</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G208">
         <v>14</v>
       </c>
       <c r="H208">
-        <v>418.78</v>
+        <v>418.77</v>
       </c>
       <c r="I208">
-        <v>761.7</v>
+        <v>761.6799999999999</v>
       </c>
       <c r="J208">
-        <v>90.53</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="K208">
-        <v>418.77</v>
+        <v>418.76</v>
       </c>
       <c r="L208">
         <v>743.1</v>
       </c>
       <c r="M208">
-        <v>91.61</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="N208" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -10375,7 +10609,7 @@
         <v>23</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G209">
         <v>15</v>
@@ -10384,22 +10618,22 @@
         <v>303.9</v>
       </c>
       <c r="I209">
-        <v>683.17</v>
+        <v>683.16</v>
       </c>
       <c r="J209">
-        <v>78.92</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="K209">
-        <v>303.89</v>
+        <v>303.9</v>
       </c>
       <c r="L209">
-        <v>664.9400000000001</v>
+        <v>664.98</v>
       </c>
       <c r="M209">
-        <v>77.3</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="N209" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -10419,7 +10653,7 @@
         <v>23</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G210">
         <v>16</v>
@@ -10434,16 +10668,16 @@
         <v>59.2</v>
       </c>
       <c r="K210">
-        <v>160.5</v>
+        <v>160.51</v>
       </c>
       <c r="L210">
-        <v>501.45</v>
+        <v>501.48</v>
       </c>
       <c r="M210">
         <v>55.03</v>
       </c>
       <c r="N210" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10463,7 +10697,7 @@
         <v>23</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G211">
         <v>17</v>
@@ -10481,13 +10715,13 @@
         <v>28.17</v>
       </c>
       <c r="L211">
-        <v>108.28</v>
+        <v>108.29</v>
       </c>
       <c r="M211">
         <v>17.7</v>
       </c>
       <c r="N211" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10507,7 +10741,7 @@
         <v>23</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G212">
         <v>18</v>
@@ -10531,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="N212" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -10551,7 +10785,7 @@
         <v>23</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G213">
         <v>19</v>
@@ -10575,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="N213" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -10595,7 +10829,7 @@
         <v>23</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G214">
         <v>20</v>
@@ -10619,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="N214" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -10639,7 +10873,7 @@
         <v>23</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G215">
         <v>21</v>
@@ -10663,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="N215" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -10683,7 +10917,7 @@
         <v>23</v>
       </c>
       <c r="F216" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G216">
         <v>22</v>
@@ -10707,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="N216" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10727,7 +10961,7 @@
         <v>23</v>
       </c>
       <c r="F217" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G217">
         <v>23</v>
@@ -10751,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="N217" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -10771,7 +11005,7 @@
         <v>24</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -10795,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="N218" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -10815,7 +11049,7 @@
         <v>24</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -10839,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="N219" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10859,7 +11093,7 @@
         <v>24</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -10883,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="N220" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10903,7 +11137,7 @@
         <v>24</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G221">
         <v>3</v>
@@ -10927,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="N221" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -10947,7 +11181,7 @@
         <v>24</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G222">
         <v>4</v>
@@ -10971,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="N222" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -10991,7 +11225,7 @@
         <v>24</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G223">
         <v>5</v>
@@ -11015,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="N223" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11035,7 +11269,7 @@
         <v>24</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G224">
         <v>6</v>
@@ -11059,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="N224" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11079,31 +11313,31 @@
         <v>24</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G225">
         <v>7</v>
       </c>
       <c r="H225">
-        <v>8.199999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I225">
-        <v>61</v>
+        <v>61.04</v>
       </c>
       <c r="J225">
         <v>9.35</v>
       </c>
       <c r="K225">
-        <v>4.45</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="L225">
-        <v>0</v>
+        <v>16.08</v>
       </c>
       <c r="M225">
-        <v>4.45</v>
+        <v>7.26</v>
       </c>
       <c r="N225" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11123,31 +11357,31 @@
         <v>24</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G226">
         <v>8</v>
       </c>
       <c r="H226">
-        <v>115.04</v>
+        <v>115.07</v>
       </c>
       <c r="I226">
-        <v>445.78</v>
+        <v>445.95</v>
       </c>
       <c r="J226">
-        <v>50.47</v>
+        <v>50.46</v>
       </c>
       <c r="K226">
-        <v>49.85</v>
+        <v>115.07</v>
       </c>
       <c r="L226">
-        <v>0</v>
+        <v>409.2</v>
       </c>
       <c r="M226">
-        <v>49.85</v>
+        <v>46.13</v>
       </c>
       <c r="N226" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -11167,31 +11401,31 @@
         <v>24</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G227">
         <v>9</v>
       </c>
       <c r="H227">
-        <v>262.92</v>
+        <v>262.96</v>
       </c>
       <c r="I227">
-        <v>646.9299999999999</v>
+        <v>647.1</v>
       </c>
       <c r="J227">
-        <v>74.09999999999999</v>
+        <v>74.09</v>
       </c>
       <c r="K227">
-        <v>87.56999999999999</v>
+        <v>262.96</v>
       </c>
       <c r="L227">
-        <v>0</v>
+        <v>627.99</v>
       </c>
       <c r="M227">
-        <v>87.56999999999999</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="N227" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -11211,31 +11445,31 @@
         <v>24</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G228">
         <v>10</v>
       </c>
       <c r="H228">
-        <v>390.07</v>
+        <v>390.13</v>
       </c>
       <c r="I228">
-        <v>743.84</v>
+        <v>744.01</v>
       </c>
       <c r="J228">
-        <v>87.90000000000001</v>
+        <v>87.87</v>
       </c>
       <c r="K228">
-        <v>184.52</v>
+        <v>390.13</v>
       </c>
       <c r="L228">
-        <v>29.94</v>
+        <v>727.55</v>
       </c>
       <c r="M228">
-        <v>171.36</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="N228" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -11255,31 +11489,31 @@
         <v>24</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G229">
         <v>11</v>
       </c>
       <c r="H229">
-        <v>476.95</v>
+        <v>477.02</v>
       </c>
       <c r="I229">
-        <v>792.6900000000001</v>
+        <v>792.88</v>
       </c>
       <c r="J229">
-        <v>95.64</v>
+        <v>95.61</v>
       </c>
       <c r="K229">
-        <v>329.15</v>
+        <v>477.02</v>
       </c>
       <c r="L229">
-        <v>182.53</v>
+        <v>768.65</v>
       </c>
       <c r="M229">
-        <v>238.96</v>
+        <v>100.47</v>
       </c>
       <c r="N229" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -11299,31 +11533,31 @@
         <v>24</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G230">
         <v>12</v>
       </c>
       <c r="H230">
-        <v>513.27</v>
+        <v>513.34</v>
       </c>
       <c r="I230">
-        <v>810.39</v>
+        <v>810.5700000000001</v>
       </c>
       <c r="J230">
-        <v>98.59</v>
+        <v>98.55</v>
       </c>
       <c r="K230">
-        <v>427.37</v>
+        <v>513.34</v>
       </c>
       <c r="L230">
-        <v>377.21</v>
+        <v>781.96</v>
       </c>
       <c r="M230">
-        <v>230.97</v>
+        <v>106.43</v>
       </c>
       <c r="N230" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -11343,31 +11577,31 @@
         <v>24</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G231">
         <v>13</v>
       </c>
       <c r="H231">
-        <v>495.07</v>
+        <v>495.14</v>
       </c>
       <c r="I231">
-        <v>801.75</v>
+        <v>801.95</v>
       </c>
       <c r="J231">
-        <v>97.11</v>
+        <v>97.08</v>
       </c>
       <c r="K231">
-        <v>453.23</v>
+        <v>495.14</v>
       </c>
       <c r="L231">
-        <v>591.64</v>
+        <v>775.52</v>
       </c>
       <c r="M231">
-        <v>154.99</v>
+        <v>103.43</v>
       </c>
       <c r="N231" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11387,31 +11621,31 @@
         <v>24</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G232">
         <v>14</v>
       </c>
       <c r="H232">
-        <v>424.3</v>
+        <v>424.37</v>
       </c>
       <c r="I232">
-        <v>764.45</v>
+        <v>764.67</v>
       </c>
       <c r="J232">
-        <v>91.05</v>
+        <v>91.02</v>
       </c>
       <c r="K232">
-        <v>415.01</v>
+        <v>424.37</v>
       </c>
       <c r="L232">
-        <v>709.21</v>
+        <v>745.62</v>
       </c>
       <c r="M232">
-        <v>100.06</v>
+        <v>92.41</v>
       </c>
       <c r="N232" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11431,31 +11665,31 @@
         <v>24</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G233">
         <v>15</v>
       </c>
       <c r="H233">
-        <v>309.05</v>
+        <v>309.12</v>
       </c>
       <c r="I233">
-        <v>686.88</v>
+        <v>687.13</v>
       </c>
       <c r="J233">
-        <v>79.51000000000001</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="K233">
-        <v>309.05</v>
+        <v>309.12</v>
       </c>
       <c r="L233">
-        <v>668.8200000000001</v>
+        <v>668.99</v>
       </c>
       <c r="M233">
-        <v>77.95</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="N233" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11475,31 +11709,31 @@
         <v>24</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G234">
         <v>16</v>
       </c>
       <c r="H234">
-        <v>165.01</v>
+        <v>165.06</v>
       </c>
       <c r="I234">
-        <v>532.75</v>
+        <v>533.04</v>
       </c>
       <c r="J234">
-        <v>59.97</v>
+        <v>59.96</v>
       </c>
       <c r="K234">
-        <v>165.01</v>
+        <v>165.06</v>
       </c>
       <c r="L234">
-        <v>508.91</v>
+        <v>509.2</v>
       </c>
       <c r="M234">
         <v>55.76</v>
       </c>
       <c r="N234" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11519,31 +11753,31 @@
         <v>24</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G235">
         <v>17</v>
       </c>
       <c r="H235">
-        <v>30.45</v>
+        <v>30.47</v>
       </c>
       <c r="I235">
-        <v>176.86</v>
+        <v>177.03</v>
       </c>
       <c r="J235">
         <v>22.28</v>
       </c>
       <c r="K235">
-        <v>30.45</v>
+        <v>30.47</v>
       </c>
       <c r="L235">
-        <v>114.79</v>
+        <v>114.97</v>
       </c>
       <c r="M235">
         <v>18.91</v>
       </c>
       <c r="N235" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11563,7 +11797,7 @@
         <v>24</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G236">
         <v>18</v>
@@ -11587,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="N236" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -11607,7 +11841,7 @@
         <v>24</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G237">
         <v>19</v>
@@ -11631,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="N237" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -11651,7 +11885,7 @@
         <v>24</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G238">
         <v>20</v>
@@ -11675,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="N238" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -11695,7 +11929,7 @@
         <v>24</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G239">
         <v>21</v>
@@ -11719,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="N239" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -11739,7 +11973,7 @@
         <v>24</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G240">
         <v>22</v>
@@ -11763,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="N240" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -11783,7 +12017,7 @@
         <v>24</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G241">
         <v>23</v>
@@ -11807,7 +12041,3175 @@
         <v>0</v>
       </c>
       <c r="N241" t="s">
-        <v>274</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
+      <c r="A242">
+        <v>46.073272</v>
+      </c>
+      <c r="B242">
+        <v>23.580489</v>
+      </c>
+      <c r="C242" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D242" t="s">
+        <v>14</v>
+      </c>
+      <c r="E242" t="s">
+        <v>25</v>
+      </c>
+      <c r="F242" t="s">
+        <v>38</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
+      <c r="A243">
+        <v>46.073272</v>
+      </c>
+      <c r="B243">
+        <v>23.580489</v>
+      </c>
+      <c r="C243" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D243" t="s">
+        <v>14</v>
+      </c>
+      <c r="E243" t="s">
+        <v>25</v>
+      </c>
+      <c r="F243" t="s">
+        <v>38</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
+      <c r="A244">
+        <v>46.073272</v>
+      </c>
+      <c r="B244">
+        <v>23.580489</v>
+      </c>
+      <c r="C244" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D244" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" t="s">
+        <v>25</v>
+      </c>
+      <c r="F244" t="s">
+        <v>38</v>
+      </c>
+      <c r="G244">
+        <v>2</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245">
+        <v>46.073272</v>
+      </c>
+      <c r="B245">
+        <v>23.580489</v>
+      </c>
+      <c r="C245" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D245" t="s">
+        <v>14</v>
+      </c>
+      <c r="E245" t="s">
+        <v>25</v>
+      </c>
+      <c r="F245" t="s">
+        <v>38</v>
+      </c>
+      <c r="G245">
+        <v>3</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246">
+        <v>46.073272</v>
+      </c>
+      <c r="B246">
+        <v>23.580489</v>
+      </c>
+      <c r="C246" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D246" t="s">
+        <v>14</v>
+      </c>
+      <c r="E246" t="s">
+        <v>25</v>
+      </c>
+      <c r="F246" t="s">
+        <v>38</v>
+      </c>
+      <c r="G246">
+        <v>4</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247">
+        <v>46.073272</v>
+      </c>
+      <c r="B247">
+        <v>23.580489</v>
+      </c>
+      <c r="C247" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D247" t="s">
+        <v>14</v>
+      </c>
+      <c r="E247" t="s">
+        <v>25</v>
+      </c>
+      <c r="F247" t="s">
+        <v>38</v>
+      </c>
+      <c r="G247">
+        <v>5</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248">
+        <v>46.073272</v>
+      </c>
+      <c r="B248">
+        <v>23.580489</v>
+      </c>
+      <c r="C248" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D248" t="s">
+        <v>14</v>
+      </c>
+      <c r="E248" t="s">
+        <v>25</v>
+      </c>
+      <c r="F248" t="s">
+        <v>38</v>
+      </c>
+      <c r="G248">
+        <v>6</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
+      <c r="A249">
+        <v>46.073272</v>
+      </c>
+      <c r="B249">
+        <v>23.580489</v>
+      </c>
+      <c r="C249" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D249" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" t="s">
+        <v>25</v>
+      </c>
+      <c r="F249" t="s">
+        <v>38</v>
+      </c>
+      <c r="G249">
+        <v>7</v>
+      </c>
+      <c r="H249">
+        <v>9.49</v>
+      </c>
+      <c r="I249">
+        <v>69.23999999999999</v>
+      </c>
+      <c r="J249">
+        <v>10.2</v>
+      </c>
+      <c r="K249">
+        <v>9.49</v>
+      </c>
+      <c r="L249">
+        <v>26.82</v>
+      </c>
+      <c r="M249">
+        <v>7.78</v>
+      </c>
+      <c r="N249" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250">
+        <v>46.073272</v>
+      </c>
+      <c r="B250">
+        <v>23.580489</v>
+      </c>
+      <c r="C250" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D250" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250" t="s">
+        <v>25</v>
+      </c>
+      <c r="F250" t="s">
+        <v>38</v>
+      </c>
+      <c r="G250">
+        <v>8</v>
+      </c>
+      <c r="H250">
+        <v>119.56</v>
+      </c>
+      <c r="I250">
+        <v>454.8</v>
+      </c>
+      <c r="J250">
+        <v>51.4</v>
+      </c>
+      <c r="K250">
+        <v>119.56</v>
+      </c>
+      <c r="L250">
+        <v>420.04</v>
+      </c>
+      <c r="M250">
+        <v>47.02</v>
+      </c>
+      <c r="N250" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
+      <c r="A251">
+        <v>46.073272</v>
+      </c>
+      <c r="B251">
+        <v>23.580489</v>
+      </c>
+      <c r="C251" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D251" t="s">
+        <v>14</v>
+      </c>
+      <c r="E251" t="s">
+        <v>25</v>
+      </c>
+      <c r="F251" t="s">
+        <v>38</v>
+      </c>
+      <c r="G251">
+        <v>9</v>
+      </c>
+      <c r="H251">
+        <v>268.3</v>
+      </c>
+      <c r="I251">
+        <v>651.8</v>
+      </c>
+      <c r="J251">
+        <v>74.73</v>
+      </c>
+      <c r="K251">
+        <v>268.3</v>
+      </c>
+      <c r="L251">
+        <v>632.85</v>
+      </c>
+      <c r="M251">
+        <v>72.55</v>
+      </c>
+      <c r="N251" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
+      <c r="A252">
+        <v>46.073272</v>
+      </c>
+      <c r="B252">
+        <v>23.580489</v>
+      </c>
+      <c r="C252" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D252" t="s">
+        <v>14</v>
+      </c>
+      <c r="E252" t="s">
+        <v>25</v>
+      </c>
+      <c r="F252" t="s">
+        <v>38</v>
+      </c>
+      <c r="G252">
+        <v>10</v>
+      </c>
+      <c r="H252">
+        <v>395.85</v>
+      </c>
+      <c r="I252">
+        <v>747.3</v>
+      </c>
+      <c r="J252">
+        <v>88.39</v>
+      </c>
+      <c r="K252">
+        <v>395.85</v>
+      </c>
+      <c r="L252">
+        <v>730.48</v>
+      </c>
+      <c r="M252">
+        <v>88.3</v>
+      </c>
+      <c r="N252" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
+      <c r="A253">
+        <v>46.073272</v>
+      </c>
+      <c r="B253">
+        <v>23.580489</v>
+      </c>
+      <c r="C253" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D253" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" t="s">
+        <v>25</v>
+      </c>
+      <c r="F253" t="s">
+        <v>38</v>
+      </c>
+      <c r="G253">
+        <v>11</v>
+      </c>
+      <c r="H253">
+        <v>482.93</v>
+      </c>
+      <c r="I253">
+        <v>795.5700000000001</v>
+      </c>
+      <c r="J253">
+        <v>96.08</v>
+      </c>
+      <c r="K253">
+        <v>482.93</v>
+      </c>
+      <c r="L253">
+        <v>770.66</v>
+      </c>
+      <c r="M253">
+        <v>101.41</v>
+      </c>
+      <c r="N253" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
+      <c r="A254">
+        <v>46.073272</v>
+      </c>
+      <c r="B254">
+        <v>23.580489</v>
+      </c>
+      <c r="C254" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D254" t="s">
+        <v>14</v>
+      </c>
+      <c r="E254" t="s">
+        <v>25</v>
+      </c>
+      <c r="F254" t="s">
+        <v>38</v>
+      </c>
+      <c r="G254">
+        <v>12</v>
+      </c>
+      <c r="H254">
+        <v>519.29</v>
+      </c>
+      <c r="I254">
+        <v>813.0700000000001</v>
+      </c>
+      <c r="J254">
+        <v>99</v>
+      </c>
+      <c r="K254">
+        <v>519.29</v>
+      </c>
+      <c r="L254">
+        <v>783.67</v>
+      </c>
+      <c r="M254">
+        <v>107.44</v>
+      </c>
+      <c r="N254" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
+      <c r="A255">
+        <v>46.073272</v>
+      </c>
+      <c r="B255">
+        <v>23.580489</v>
+      </c>
+      <c r="C255" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D255" t="s">
+        <v>14</v>
+      </c>
+      <c r="E255" t="s">
+        <v>25</v>
+      </c>
+      <c r="F255" t="s">
+        <v>38</v>
+      </c>
+      <c r="G255">
+        <v>13</v>
+      </c>
+      <c r="H255">
+        <v>500.99</v>
+      </c>
+      <c r="I255">
+        <v>804.51</v>
+      </c>
+      <c r="J255">
+        <v>97.52</v>
+      </c>
+      <c r="K255">
+        <v>500.99</v>
+      </c>
+      <c r="L255">
+        <v>777.35</v>
+      </c>
+      <c r="M255">
+        <v>104.39</v>
+      </c>
+      <c r="N255" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
+      <c r="A256">
+        <v>46.073272</v>
+      </c>
+      <c r="B256">
+        <v>23.580489</v>
+      </c>
+      <c r="C256" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D256" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256" t="s">
+        <v>25</v>
+      </c>
+      <c r="F256" t="s">
+        <v>38</v>
+      </c>
+      <c r="G256">
+        <v>14</v>
+      </c>
+      <c r="H256">
+        <v>429.98</v>
+      </c>
+      <c r="I256">
+        <v>767.6</v>
+      </c>
+      <c r="J256">
+        <v>91.5</v>
+      </c>
+      <c r="K256">
+        <v>429.98</v>
+      </c>
+      <c r="L256">
+        <v>748.03</v>
+      </c>
+      <c r="M256">
+        <v>93.23999999999999</v>
+      </c>
+      <c r="N256" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
+      <c r="A257">
+        <v>46.073272</v>
+      </c>
+      <c r="B257">
+        <v>23.580489</v>
+      </c>
+      <c r="C257" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D257" t="s">
+        <v>14</v>
+      </c>
+      <c r="E257" t="s">
+        <v>25</v>
+      </c>
+      <c r="F257" t="s">
+        <v>38</v>
+      </c>
+      <c r="G257">
+        <v>15</v>
+      </c>
+      <c r="H257">
+        <v>314.34</v>
+      </c>
+      <c r="I257">
+        <v>690.99</v>
+      </c>
+      <c r="J257">
+        <v>80.05</v>
+      </c>
+      <c r="K257">
+        <v>314.32</v>
+      </c>
+      <c r="L257">
+        <v>672.8</v>
+      </c>
+      <c r="M257">
+        <v>78.64</v>
+      </c>
+      <c r="N257" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
+      <c r="A258">
+        <v>46.073272</v>
+      </c>
+      <c r="B258">
+        <v>23.580489</v>
+      </c>
+      <c r="C258" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D258" t="s">
+        <v>14</v>
+      </c>
+      <c r="E258" t="s">
+        <v>25</v>
+      </c>
+      <c r="F258" t="s">
+        <v>38</v>
+      </c>
+      <c r="G258">
+        <v>16</v>
+      </c>
+      <c r="H258">
+        <v>169.63</v>
+      </c>
+      <c r="I258">
+        <v>539.4400000000001</v>
+      </c>
+      <c r="J258">
+        <v>60.71</v>
+      </c>
+      <c r="K258">
+        <v>169.61</v>
+      </c>
+      <c r="L258">
+        <v>516.53</v>
+      </c>
+      <c r="M258">
+        <v>56.48</v>
+      </c>
+      <c r="N258" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
+      <c r="A259">
+        <v>46.073272</v>
+      </c>
+      <c r="B259">
+        <v>23.580489</v>
+      </c>
+      <c r="C259" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D259" t="s">
+        <v>14</v>
+      </c>
+      <c r="E259" t="s">
+        <v>25</v>
+      </c>
+      <c r="F259" t="s">
+        <v>38</v>
+      </c>
+      <c r="G259">
+        <v>17</v>
+      </c>
+      <c r="H259">
+        <v>32.83</v>
+      </c>
+      <c r="I259">
+        <v>187.1</v>
+      </c>
+      <c r="J259">
+        <v>23.24</v>
+      </c>
+      <c r="K259">
+        <v>32.81</v>
+      </c>
+      <c r="L259">
+        <v>122.06</v>
+      </c>
+      <c r="M259">
+        <v>20.08</v>
+      </c>
+      <c r="N259" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
+      <c r="A260">
+        <v>46.073272</v>
+      </c>
+      <c r="B260">
+        <v>23.580489</v>
+      </c>
+      <c r="C260" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D260" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" t="s">
+        <v>25</v>
+      </c>
+      <c r="F260" t="s">
+        <v>38</v>
+      </c>
+      <c r="G260">
+        <v>18</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
+      <c r="A261">
+        <v>46.073272</v>
+      </c>
+      <c r="B261">
+        <v>23.580489</v>
+      </c>
+      <c r="C261" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D261" t="s">
+        <v>14</v>
+      </c>
+      <c r="E261" t="s">
+        <v>25</v>
+      </c>
+      <c r="F261" t="s">
+        <v>38</v>
+      </c>
+      <c r="G261">
+        <v>19</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
+      <c r="A262">
+        <v>46.073272</v>
+      </c>
+      <c r="B262">
+        <v>23.580489</v>
+      </c>
+      <c r="C262" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D262" t="s">
+        <v>14</v>
+      </c>
+      <c r="E262" t="s">
+        <v>25</v>
+      </c>
+      <c r="F262" t="s">
+        <v>38</v>
+      </c>
+      <c r="G262">
+        <v>20</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
+      <c r="A263">
+        <v>46.073272</v>
+      </c>
+      <c r="B263">
+        <v>23.580489</v>
+      </c>
+      <c r="C263" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D263" t="s">
+        <v>14</v>
+      </c>
+      <c r="E263" t="s">
+        <v>25</v>
+      </c>
+      <c r="F263" t="s">
+        <v>38</v>
+      </c>
+      <c r="G263">
+        <v>21</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
+      <c r="A264">
+        <v>46.073272</v>
+      </c>
+      <c r="B264">
+        <v>23.580489</v>
+      </c>
+      <c r="C264" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D264" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" t="s">
+        <v>25</v>
+      </c>
+      <c r="F264" t="s">
+        <v>38</v>
+      </c>
+      <c r="G264">
+        <v>22</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
+      <c r="A265">
+        <v>46.073272</v>
+      </c>
+      <c r="B265">
+        <v>23.580489</v>
+      </c>
+      <c r="C265" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D265" t="s">
+        <v>14</v>
+      </c>
+      <c r="E265" t="s">
+        <v>25</v>
+      </c>
+      <c r="F265" t="s">
+        <v>38</v>
+      </c>
+      <c r="G265">
+        <v>23</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
+      <c r="A266">
+        <v>46.073272</v>
+      </c>
+      <c r="B266">
+        <v>23.580489</v>
+      </c>
+      <c r="C266" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D266" t="s">
+        <v>14</v>
+      </c>
+      <c r="E266" t="s">
+        <v>26</v>
+      </c>
+      <c r="F266" t="s">
+        <v>39</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
+      <c r="A267">
+        <v>46.073272</v>
+      </c>
+      <c r="B267">
+        <v>23.580489</v>
+      </c>
+      <c r="C267" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D267" t="s">
+        <v>14</v>
+      </c>
+      <c r="E267" t="s">
+        <v>26</v>
+      </c>
+      <c r="F267" t="s">
+        <v>39</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
+      <c r="A268">
+        <v>46.073272</v>
+      </c>
+      <c r="B268">
+        <v>23.580489</v>
+      </c>
+      <c r="C268" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D268" t="s">
+        <v>14</v>
+      </c>
+      <c r="E268" t="s">
+        <v>26</v>
+      </c>
+      <c r="F268" t="s">
+        <v>39</v>
+      </c>
+      <c r="G268">
+        <v>2</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
+      <c r="A269">
+        <v>46.073272</v>
+      </c>
+      <c r="B269">
+        <v>23.580489</v>
+      </c>
+      <c r="C269" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D269" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" t="s">
+        <v>26</v>
+      </c>
+      <c r="F269" t="s">
+        <v>39</v>
+      </c>
+      <c r="G269">
+        <v>3</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
+      <c r="A270">
+        <v>46.073272</v>
+      </c>
+      <c r="B270">
+        <v>23.580489</v>
+      </c>
+      <c r="C270" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D270" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270" t="s">
+        <v>26</v>
+      </c>
+      <c r="F270" t="s">
+        <v>39</v>
+      </c>
+      <c r="G270">
+        <v>4</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
+      <c r="A271">
+        <v>46.073272</v>
+      </c>
+      <c r="B271">
+        <v>23.580489</v>
+      </c>
+      <c r="C271" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" t="s">
+        <v>26</v>
+      </c>
+      <c r="F271" t="s">
+        <v>39</v>
+      </c>
+      <c r="G271">
+        <v>5</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
+      <c r="A272">
+        <v>46.073272</v>
+      </c>
+      <c r="B272">
+        <v>23.580489</v>
+      </c>
+      <c r="C272" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D272" t="s">
+        <v>14</v>
+      </c>
+      <c r="E272" t="s">
+        <v>26</v>
+      </c>
+      <c r="F272" t="s">
+        <v>39</v>
+      </c>
+      <c r="G272">
+        <v>6</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
+      <c r="A273">
+        <v>46.073272</v>
+      </c>
+      <c r="B273">
+        <v>23.580489</v>
+      </c>
+      <c r="C273" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D273" t="s">
+        <v>14</v>
+      </c>
+      <c r="E273" t="s">
+        <v>26</v>
+      </c>
+      <c r="F273" t="s">
+        <v>39</v>
+      </c>
+      <c r="G273">
+        <v>7</v>
+      </c>
+      <c r="H273">
+        <v>10.87</v>
+      </c>
+      <c r="I273">
+        <v>77.61</v>
+      </c>
+      <c r="J273">
+        <v>11.04</v>
+      </c>
+      <c r="K273">
+        <v>2.95</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>2.95</v>
+      </c>
+      <c r="N273" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
+      <c r="A274">
+        <v>46.073272</v>
+      </c>
+      <c r="B274">
+        <v>23.580489</v>
+      </c>
+      <c r="C274" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D274" t="s">
+        <v>14</v>
+      </c>
+      <c r="E274" t="s">
+        <v>26</v>
+      </c>
+      <c r="F274" t="s">
+        <v>39</v>
+      </c>
+      <c r="G274">
+        <v>8</v>
+      </c>
+      <c r="H274">
+        <v>124.15</v>
+      </c>
+      <c r="I274">
+        <v>463.5</v>
+      </c>
+      <c r="J274">
+        <v>52.34</v>
+      </c>
+      <c r="K274">
+        <v>42.95</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>42.95</v>
+      </c>
+      <c r="N274" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
+      <c r="A275">
+        <v>46.073272</v>
+      </c>
+      <c r="B275">
+        <v>23.580489</v>
+      </c>
+      <c r="C275" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D275" t="s">
+        <v>14</v>
+      </c>
+      <c r="E275" t="s">
+        <v>26</v>
+      </c>
+      <c r="F275" t="s">
+        <v>39</v>
+      </c>
+      <c r="G275">
+        <v>9</v>
+      </c>
+      <c r="H275">
+        <v>273.69</v>
+      </c>
+      <c r="I275">
+        <v>656.37</v>
+      </c>
+      <c r="J275">
+        <v>75.38</v>
+      </c>
+      <c r="K275">
+        <v>104.98</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>104.98</v>
+      </c>
+      <c r="N275" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
+      <c r="A276">
+        <v>46.073272</v>
+      </c>
+      <c r="B276">
+        <v>23.580489</v>
+      </c>
+      <c r="C276" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D276" t="s">
+        <v>14</v>
+      </c>
+      <c r="E276" t="s">
+        <v>26</v>
+      </c>
+      <c r="F276" t="s">
+        <v>39</v>
+      </c>
+      <c r="G276">
+        <v>10</v>
+      </c>
+      <c r="H276">
+        <v>401.59</v>
+      </c>
+      <c r="I276">
+        <v>750.45</v>
+      </c>
+      <c r="J276">
+        <v>88.93000000000001</v>
+      </c>
+      <c r="K276">
+        <v>130.85</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>130.85</v>
+      </c>
+      <c r="N276" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
+      <c r="A277">
+        <v>46.073272</v>
+      </c>
+      <c r="B277">
+        <v>23.580489</v>
+      </c>
+      <c r="C277" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D277" t="s">
+        <v>14</v>
+      </c>
+      <c r="E277" t="s">
+        <v>26</v>
+      </c>
+      <c r="F277" t="s">
+        <v>39</v>
+      </c>
+      <c r="G277">
+        <v>11</v>
+      </c>
+      <c r="H277">
+        <v>488.82</v>
+      </c>
+      <c r="I277">
+        <v>798.1</v>
+      </c>
+      <c r="J277">
+        <v>96.56999999999999</v>
+      </c>
+      <c r="K277">
+        <v>158.28</v>
+      </c>
+      <c r="L277">
+        <v>0.85</v>
+      </c>
+      <c r="M277">
+        <v>157.84</v>
+      </c>
+      <c r="N277" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
+      <c r="A278">
+        <v>46.073272</v>
+      </c>
+      <c r="B278">
+        <v>23.580489</v>
+      </c>
+      <c r="C278" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D278" t="s">
+        <v>14</v>
+      </c>
+      <c r="E278" t="s">
+        <v>26</v>
+      </c>
+      <c r="F278" t="s">
+        <v>39</v>
+      </c>
+      <c r="G278">
+        <v>12</v>
+      </c>
+      <c r="H278">
+        <v>525.1900000000001</v>
+      </c>
+      <c r="I278">
+        <v>815.37</v>
+      </c>
+      <c r="J278">
+        <v>99.47</v>
+      </c>
+      <c r="K278">
+        <v>185.98</v>
+      </c>
+      <c r="L278">
+        <v>5.41</v>
+      </c>
+      <c r="M278">
+        <v>183.11</v>
+      </c>
+      <c r="N278" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
+      <c r="A279">
+        <v>46.073272</v>
+      </c>
+      <c r="B279">
+        <v>23.580489</v>
+      </c>
+      <c r="C279" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D279" t="s">
+        <v>14</v>
+      </c>
+      <c r="E279" t="s">
+        <v>26</v>
+      </c>
+      <c r="F279" t="s">
+        <v>39</v>
+      </c>
+      <c r="G279">
+        <v>13</v>
+      </c>
+      <c r="H279">
+        <v>506.79</v>
+      </c>
+      <c r="I279">
+        <v>806.87</v>
+      </c>
+      <c r="J279">
+        <v>98</v>
+      </c>
+      <c r="K279">
+        <v>185.31</v>
+      </c>
+      <c r="L279">
+        <v>6.56</v>
+      </c>
+      <c r="M279">
+        <v>181.92</v>
+      </c>
+      <c r="N279" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
+      <c r="A280">
+        <v>46.073272</v>
+      </c>
+      <c r="B280">
+        <v>23.580489</v>
+      </c>
+      <c r="C280" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D280" t="s">
+        <v>14</v>
+      </c>
+      <c r="E280" t="s">
+        <v>26</v>
+      </c>
+      <c r="F280" t="s">
+        <v>39</v>
+      </c>
+      <c r="G280">
+        <v>14</v>
+      </c>
+      <c r="H280">
+        <v>435.55</v>
+      </c>
+      <c r="I280">
+        <v>770.33</v>
+      </c>
+      <c r="J280">
+        <v>92</v>
+      </c>
+      <c r="K280">
+        <v>172.41</v>
+      </c>
+      <c r="L280">
+        <v>10.3</v>
+      </c>
+      <c r="M280">
+        <v>167.82</v>
+      </c>
+      <c r="N280" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
+      <c r="A281">
+        <v>46.073272</v>
+      </c>
+      <c r="B281">
+        <v>23.580489</v>
+      </c>
+      <c r="C281" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D281" t="s">
+        <v>14</v>
+      </c>
+      <c r="E281" t="s">
+        <v>26</v>
+      </c>
+      <c r="F281" t="s">
+        <v>39</v>
+      </c>
+      <c r="G281">
+        <v>15</v>
+      </c>
+      <c r="H281">
+        <v>319.54</v>
+      </c>
+      <c r="I281">
+        <v>694.63</v>
+      </c>
+      <c r="J281">
+        <v>80.62</v>
+      </c>
+      <c r="K281">
+        <v>133.51</v>
+      </c>
+      <c r="L281">
+        <v>9.18</v>
+      </c>
+      <c r="M281">
+        <v>130</v>
+      </c>
+      <c r="N281" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
+      <c r="A282">
+        <v>46.073272</v>
+      </c>
+      <c r="B282">
+        <v>23.580489</v>
+      </c>
+      <c r="C282" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D282" t="s">
+        <v>14</v>
+      </c>
+      <c r="E282" t="s">
+        <v>26</v>
+      </c>
+      <c r="F282" t="s">
+        <v>39</v>
+      </c>
+      <c r="G282">
+        <v>16</v>
+      </c>
+      <c r="H282">
+        <v>174.19</v>
+      </c>
+      <c r="I282">
+        <v>545.55</v>
+      </c>
+      <c r="J282">
+        <v>61.46</v>
+      </c>
+      <c r="K282">
+        <v>60</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>60</v>
+      </c>
+      <c r="N282" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
+      <c r="A283">
+        <v>46.073272</v>
+      </c>
+      <c r="B283">
+        <v>23.580489</v>
+      </c>
+      <c r="C283" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D283" t="s">
+        <v>14</v>
+      </c>
+      <c r="E283" t="s">
+        <v>26</v>
+      </c>
+      <c r="F283" t="s">
+        <v>39</v>
+      </c>
+      <c r="G283">
+        <v>17</v>
+      </c>
+      <c r="H283">
+        <v>35.24</v>
+      </c>
+      <c r="I283">
+        <v>196.85</v>
+      </c>
+      <c r="J283">
+        <v>24.18</v>
+      </c>
+      <c r="K283">
+        <v>11.23</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>11.23</v>
+      </c>
+      <c r="N283" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
+      <c r="A284">
+        <v>46.073272</v>
+      </c>
+      <c r="B284">
+        <v>23.580489</v>
+      </c>
+      <c r="C284" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D284" t="s">
+        <v>14</v>
+      </c>
+      <c r="E284" t="s">
+        <v>26</v>
+      </c>
+      <c r="F284" t="s">
+        <v>39</v>
+      </c>
+      <c r="G284">
+        <v>18</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
+      <c r="A285">
+        <v>46.073272</v>
+      </c>
+      <c r="B285">
+        <v>23.580489</v>
+      </c>
+      <c r="C285" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D285" t="s">
+        <v>14</v>
+      </c>
+      <c r="E285" t="s">
+        <v>26</v>
+      </c>
+      <c r="F285" t="s">
+        <v>39</v>
+      </c>
+      <c r="G285">
+        <v>19</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
+      <c r="A286">
+        <v>46.073272</v>
+      </c>
+      <c r="B286">
+        <v>23.580489</v>
+      </c>
+      <c r="C286" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D286" t="s">
+        <v>14</v>
+      </c>
+      <c r="E286" t="s">
+        <v>26</v>
+      </c>
+      <c r="F286" t="s">
+        <v>39</v>
+      </c>
+      <c r="G286">
+        <v>20</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
+      <c r="A287">
+        <v>46.073272</v>
+      </c>
+      <c r="B287">
+        <v>23.580489</v>
+      </c>
+      <c r="C287" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D287" t="s">
+        <v>14</v>
+      </c>
+      <c r="E287" t="s">
+        <v>26</v>
+      </c>
+      <c r="F287" t="s">
+        <v>39</v>
+      </c>
+      <c r="G287">
+        <v>21</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
+      <c r="A288">
+        <v>46.073272</v>
+      </c>
+      <c r="B288">
+        <v>23.580489</v>
+      </c>
+      <c r="C288" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D288" t="s">
+        <v>14</v>
+      </c>
+      <c r="E288" t="s">
+        <v>26</v>
+      </c>
+      <c r="F288" t="s">
+        <v>39</v>
+      </c>
+      <c r="G288">
+        <v>22</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
+      <c r="A289">
+        <v>46.073272</v>
+      </c>
+      <c r="B289">
+        <v>23.580489</v>
+      </c>
+      <c r="C289" s="2">
+        <v>45340</v>
+      </c>
+      <c r="D289" t="s">
+        <v>14</v>
+      </c>
+      <c r="E289" t="s">
+        <v>26</v>
+      </c>
+      <c r="F289" t="s">
+        <v>39</v>
+      </c>
+      <c r="G289">
+        <v>23</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
+      <c r="A290">
+        <v>46.073272</v>
+      </c>
+      <c r="B290">
+        <v>23.580489</v>
+      </c>
+      <c r="C290" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D290" t="s">
+        <v>14</v>
+      </c>
+      <c r="E290" t="s">
+        <v>27</v>
+      </c>
+      <c r="F290" t="s">
+        <v>40</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
+      <c r="A291">
+        <v>46.073272</v>
+      </c>
+      <c r="B291">
+        <v>23.580489</v>
+      </c>
+      <c r="C291" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D291" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" t="s">
+        <v>27</v>
+      </c>
+      <c r="F291" t="s">
+        <v>40</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
+      <c r="A292">
+        <v>46.073272</v>
+      </c>
+      <c r="B292">
+        <v>23.580489</v>
+      </c>
+      <c r="C292" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D292" t="s">
+        <v>14</v>
+      </c>
+      <c r="E292" t="s">
+        <v>27</v>
+      </c>
+      <c r="F292" t="s">
+        <v>40</v>
+      </c>
+      <c r="G292">
+        <v>2</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
+      <c r="A293">
+        <v>46.073272</v>
+      </c>
+      <c r="B293">
+        <v>23.580489</v>
+      </c>
+      <c r="C293" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D293" t="s">
+        <v>14</v>
+      </c>
+      <c r="E293" t="s">
+        <v>27</v>
+      </c>
+      <c r="F293" t="s">
+        <v>40</v>
+      </c>
+      <c r="G293">
+        <v>3</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
+      <c r="A294">
+        <v>46.073272</v>
+      </c>
+      <c r="B294">
+        <v>23.580489</v>
+      </c>
+      <c r="C294" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D294" t="s">
+        <v>14</v>
+      </c>
+      <c r="E294" t="s">
+        <v>27</v>
+      </c>
+      <c r="F294" t="s">
+        <v>40</v>
+      </c>
+      <c r="G294">
+        <v>4</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
+      <c r="A295">
+        <v>46.073272</v>
+      </c>
+      <c r="B295">
+        <v>23.580489</v>
+      </c>
+      <c r="C295" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D295" t="s">
+        <v>14</v>
+      </c>
+      <c r="E295" t="s">
+        <v>27</v>
+      </c>
+      <c r="F295" t="s">
+        <v>40</v>
+      </c>
+      <c r="G295">
+        <v>5</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
+      <c r="A296">
+        <v>46.073272</v>
+      </c>
+      <c r="B296">
+        <v>23.580489</v>
+      </c>
+      <c r="C296" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D296" t="s">
+        <v>14</v>
+      </c>
+      <c r="E296" t="s">
+        <v>27</v>
+      </c>
+      <c r="F296" t="s">
+        <v>40</v>
+      </c>
+      <c r="G296">
+        <v>6</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
+      <c r="A297">
+        <v>46.073272</v>
+      </c>
+      <c r="B297">
+        <v>23.580489</v>
+      </c>
+      <c r="C297" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D297" t="s">
+        <v>14</v>
+      </c>
+      <c r="E297" t="s">
+        <v>27</v>
+      </c>
+      <c r="F297" t="s">
+        <v>40</v>
+      </c>
+      <c r="G297">
+        <v>7</v>
+      </c>
+      <c r="H297">
+        <v>12.36</v>
+      </c>
+      <c r="I297">
+        <v>86.15000000000001</v>
+      </c>
+      <c r="J297">
+        <v>11.86</v>
+      </c>
+      <c r="K297">
+        <v>4.53</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <v>4.53</v>
+      </c>
+      <c r="N297" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
+      <c r="A298">
+        <v>46.073272</v>
+      </c>
+      <c r="B298">
+        <v>23.580489</v>
+      </c>
+      <c r="C298" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D298" t="s">
+        <v>14</v>
+      </c>
+      <c r="E298" t="s">
+        <v>27</v>
+      </c>
+      <c r="F298" t="s">
+        <v>40</v>
+      </c>
+      <c r="G298">
+        <v>8</v>
+      </c>
+      <c r="H298">
+        <v>128.89</v>
+      </c>
+      <c r="I298">
+        <v>472.45</v>
+      </c>
+      <c r="J298">
+        <v>53.26</v>
+      </c>
+      <c r="K298">
+        <v>44.53</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>44.53</v>
+      </c>
+      <c r="N298" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
+      <c r="A299">
+        <v>46.073272</v>
+      </c>
+      <c r="B299">
+        <v>23.580489</v>
+      </c>
+      <c r="C299" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D299" t="s">
+        <v>14</v>
+      </c>
+      <c r="E299" t="s">
+        <v>27</v>
+      </c>
+      <c r="F299" t="s">
+        <v>40</v>
+      </c>
+      <c r="G299">
+        <v>9</v>
+      </c>
+      <c r="H299">
+        <v>279.25</v>
+      </c>
+      <c r="I299">
+        <v>661.3099999999999</v>
+      </c>
+      <c r="J299">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="K299">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="N299" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
+      <c r="A300">
+        <v>46.073272</v>
+      </c>
+      <c r="B300">
+        <v>23.580489</v>
+      </c>
+      <c r="C300" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D300" t="s">
+        <v>14</v>
+      </c>
+      <c r="E300" t="s">
+        <v>27</v>
+      </c>
+      <c r="F300" t="s">
+        <v>40</v>
+      </c>
+      <c r="G300">
+        <v>10</v>
+      </c>
+      <c r="H300">
+        <v>407.52</v>
+      </c>
+      <c r="I300">
+        <v>753.97</v>
+      </c>
+      <c r="J300">
+        <v>89.42</v>
+      </c>
+      <c r="K300">
+        <v>111.48</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <v>111.48</v>
+      </c>
+      <c r="N300" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
+      <c r="A301">
+        <v>46.073272</v>
+      </c>
+      <c r="B301">
+        <v>23.580489</v>
+      </c>
+      <c r="C301" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D301" t="s">
+        <v>14</v>
+      </c>
+      <c r="E301" t="s">
+        <v>27</v>
+      </c>
+      <c r="F301" t="s">
+        <v>40</v>
+      </c>
+      <c r="G301">
+        <v>11</v>
+      </c>
+      <c r="H301">
+        <v>494.91</v>
+      </c>
+      <c r="I301">
+        <v>801.02</v>
+      </c>
+      <c r="J301">
+        <v>96.98</v>
+      </c>
+      <c r="K301">
+        <v>125.97</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>125.97</v>
+      </c>
+      <c r="N301" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
+      <c r="A302">
+        <v>46.073272</v>
+      </c>
+      <c r="B302">
+        <v>23.580489</v>
+      </c>
+      <c r="C302" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D302" t="s">
+        <v>14</v>
+      </c>
+      <c r="E302" t="s">
+        <v>27</v>
+      </c>
+      <c r="F302" t="s">
+        <v>40</v>
+      </c>
+      <c r="G302">
+        <v>12</v>
+      </c>
+      <c r="H302">
+        <v>531.3</v>
+      </c>
+      <c r="I302">
+        <v>818.0700000000001</v>
+      </c>
+      <c r="J302">
+        <v>99.86</v>
+      </c>
+      <c r="K302">
+        <v>141.4</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>141.4</v>
+      </c>
+      <c r="N302" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
+      <c r="A303">
+        <v>46.073272</v>
+      </c>
+      <c r="B303">
+        <v>23.580489</v>
+      </c>
+      <c r="C303" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D303" t="s">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>27</v>
+      </c>
+      <c r="F303" t="s">
+        <v>40</v>
+      </c>
+      <c r="G303">
+        <v>13</v>
+      </c>
+      <c r="H303">
+        <v>512.76</v>
+      </c>
+      <c r="I303">
+        <v>809.61</v>
+      </c>
+      <c r="J303">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K303">
+        <v>142.35</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>142.35</v>
+      </c>
+      <c r="N303" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
+      <c r="A304">
+        <v>46.073272</v>
+      </c>
+      <c r="B304">
+        <v>23.580489</v>
+      </c>
+      <c r="C304" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D304" t="s">
+        <v>14</v>
+      </c>
+      <c r="E304" t="s">
+        <v>27</v>
+      </c>
+      <c r="F304" t="s">
+        <v>40</v>
+      </c>
+      <c r="G304">
+        <v>14</v>
+      </c>
+      <c r="H304">
+        <v>441.28</v>
+      </c>
+      <c r="I304">
+        <v>773.4400000000001</v>
+      </c>
+      <c r="J304">
+        <v>92.43000000000001</v>
+      </c>
+      <c r="K304">
+        <v>163.91</v>
+      </c>
+      <c r="L304">
+        <v>9.92</v>
+      </c>
+      <c r="M304">
+        <v>159.58</v>
+      </c>
+      <c r="N304" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
+      <c r="A305">
+        <v>46.073272</v>
+      </c>
+      <c r="B305">
+        <v>23.580489</v>
+      </c>
+      <c r="C305" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D305" t="s">
+        <v>14</v>
+      </c>
+      <c r="E305" t="s">
+        <v>27</v>
+      </c>
+      <c r="F305" t="s">
+        <v>40</v>
+      </c>
+      <c r="G305">
+        <v>15</v>
+      </c>
+      <c r="H305">
+        <v>324.88</v>
+      </c>
+      <c r="I305">
+        <v>698.71</v>
+      </c>
+      <c r="J305">
+        <v>81.13</v>
+      </c>
+      <c r="K305">
+        <v>187.17</v>
+      </c>
+      <c r="L305">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="M305">
+        <v>154.71</v>
+      </c>
+      <c r="N305" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
+      <c r="A306">
+        <v>46.073272</v>
+      </c>
+      <c r="B306">
+        <v>23.580489</v>
+      </c>
+      <c r="C306" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D306" t="s">
+        <v>14</v>
+      </c>
+      <c r="E306" t="s">
+        <v>27</v>
+      </c>
+      <c r="F306" t="s">
+        <v>40</v>
+      </c>
+      <c r="G306">
+        <v>16</v>
+      </c>
+      <c r="H306">
+        <v>178.88</v>
+      </c>
+      <c r="I306">
+        <v>552.1</v>
+      </c>
+      <c r="J306">
+        <v>62.16</v>
+      </c>
+      <c r="K306">
+        <v>129.88</v>
+      </c>
+      <c r="L306">
+        <v>186.15</v>
+      </c>
+      <c r="M306">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="N306" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
+      <c r="A307">
+        <v>46.073272</v>
+      </c>
+      <c r="B307">
+        <v>23.580489</v>
+      </c>
+      <c r="C307" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D307" t="s">
+        <v>14</v>
+      </c>
+      <c r="E307" t="s">
+        <v>27</v>
+      </c>
+      <c r="F307" t="s">
+        <v>40</v>
+      </c>
+      <c r="G307">
+        <v>17</v>
+      </c>
+      <c r="H307">
+        <v>37.75</v>
+      </c>
+      <c r="I307">
+        <v>206.75</v>
+      </c>
+      <c r="J307">
+        <v>25.09</v>
+      </c>
+      <c r="K307">
+        <v>30.24</v>
+      </c>
+      <c r="L307">
+        <v>64.06999999999999</v>
+      </c>
+      <c r="M307">
+        <v>23.02</v>
+      </c>
+      <c r="N307" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
+      <c r="A308">
+        <v>46.073272</v>
+      </c>
+      <c r="B308">
+        <v>23.580489</v>
+      </c>
+      <c r="C308" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D308" t="s">
+        <v>14</v>
+      </c>
+      <c r="E308" t="s">
+        <v>27</v>
+      </c>
+      <c r="F308" t="s">
+        <v>40</v>
+      </c>
+      <c r="G308">
+        <v>18</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
+      <c r="A309">
+        <v>46.073272</v>
+      </c>
+      <c r="B309">
+        <v>23.580489</v>
+      </c>
+      <c r="C309" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D309" t="s">
+        <v>14</v>
+      </c>
+      <c r="E309" t="s">
+        <v>27</v>
+      </c>
+      <c r="F309" t="s">
+        <v>40</v>
+      </c>
+      <c r="G309">
+        <v>19</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
+      <c r="A310">
+        <v>46.073272</v>
+      </c>
+      <c r="B310">
+        <v>23.580489</v>
+      </c>
+      <c r="C310" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D310" t="s">
+        <v>14</v>
+      </c>
+      <c r="E310" t="s">
+        <v>27</v>
+      </c>
+      <c r="F310" t="s">
+        <v>40</v>
+      </c>
+      <c r="G310">
+        <v>20</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
+      <c r="A311">
+        <v>46.073272</v>
+      </c>
+      <c r="B311">
+        <v>23.580489</v>
+      </c>
+      <c r="C311" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D311" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" t="s">
+        <v>27</v>
+      </c>
+      <c r="F311" t="s">
+        <v>40</v>
+      </c>
+      <c r="G311">
+        <v>21</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
+      <c r="A312">
+        <v>46.073272</v>
+      </c>
+      <c r="B312">
+        <v>23.580489</v>
+      </c>
+      <c r="C312" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D312" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312" t="s">
+        <v>27</v>
+      </c>
+      <c r="F312" t="s">
+        <v>40</v>
+      </c>
+      <c r="G312">
+        <v>22</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
+      <c r="A313">
+        <v>46.073272</v>
+      </c>
+      <c r="B313">
+        <v>23.580489</v>
+      </c>
+      <c r="C313" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D313" t="s">
+        <v>14</v>
+      </c>
+      <c r="E313" t="s">
+        <v>27</v>
+      </c>
+      <c r="F313" t="s">
+        <v>40</v>
+      </c>
+      <c r="G313">
+        <v>23</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/Solina/Production/Input/Concatenated_Hourly_GHI.xlsx
+++ b/Solina/Production/Input/Concatenated_Hourly_GHI.xlsx
@@ -11331,7 +11331,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="L225">
-        <v>16.08</v>
+        <v>16.07</v>
       </c>
       <c r="M225">
         <v>7.26</v>
@@ -11366,7 +11366,7 @@
         <v>115.07</v>
       </c>
       <c r="I226">
-        <v>445.95</v>
+        <v>445.94</v>
       </c>
       <c r="J226">
         <v>50.46</v>
@@ -11375,7 +11375,7 @@
         <v>115.07</v>
       </c>
       <c r="L226">
-        <v>409.2</v>
+        <v>409.19</v>
       </c>
       <c r="M226">
         <v>46.13</v>
@@ -11454,7 +11454,7 @@
         <v>390.13</v>
       </c>
       <c r="I228">
-        <v>744.01</v>
+        <v>744.02</v>
       </c>
       <c r="J228">
         <v>87.87</v>
@@ -11498,7 +11498,7 @@
         <v>477.02</v>
       </c>
       <c r="I229">
-        <v>792.88</v>
+        <v>792.87</v>
       </c>
       <c r="J229">
         <v>95.61</v>
@@ -11507,7 +11507,7 @@
         <v>477.02</v>
       </c>
       <c r="L229">
-        <v>768.65</v>
+        <v>768.64</v>
       </c>
       <c r="M229">
         <v>100.47</v>
@@ -11539,22 +11539,22 @@
         <v>12</v>
       </c>
       <c r="H230">
-        <v>513.34</v>
+        <v>513.35</v>
       </c>
       <c r="I230">
-        <v>810.5700000000001</v>
+        <v>810.58</v>
       </c>
       <c r="J230">
         <v>98.55</v>
       </c>
       <c r="K230">
-        <v>513.34</v>
+        <v>513.35</v>
       </c>
       <c r="L230">
-        <v>781.96</v>
+        <v>781.95</v>
       </c>
       <c r="M230">
-        <v>106.43</v>
+        <v>106.44</v>
       </c>
       <c r="N230" t="s">
         <v>269</v>
@@ -11583,10 +11583,10 @@
         <v>13</v>
       </c>
       <c r="H231">
-        <v>495.14</v>
+        <v>495.15</v>
       </c>
       <c r="I231">
-        <v>801.95</v>
+        <v>801.96</v>
       </c>
       <c r="J231">
         <v>97.08</v>
@@ -11627,19 +11627,19 @@
         <v>14</v>
       </c>
       <c r="H232">
-        <v>424.37</v>
+        <v>424.38</v>
       </c>
       <c r="I232">
-        <v>764.67</v>
+        <v>764.6799999999999</v>
       </c>
       <c r="J232">
         <v>91.02</v>
       </c>
       <c r="K232">
-        <v>424.37</v>
+        <v>424.38</v>
       </c>
       <c r="L232">
-        <v>745.62</v>
+        <v>745.63</v>
       </c>
       <c r="M232">
         <v>92.41</v>
@@ -11674,16 +11674,16 @@
         <v>309.12</v>
       </c>
       <c r="I233">
-        <v>687.13</v>
+        <v>687.15</v>
       </c>
       <c r="J233">
-        <v>79.48999999999999</v>
+        <v>79.48</v>
       </c>
       <c r="K233">
         <v>309.12</v>
       </c>
       <c r="L233">
-        <v>668.99</v>
+        <v>669.01</v>
       </c>
       <c r="M233">
         <v>77.95999999999999</v>
@@ -11715,22 +11715,22 @@
         <v>16</v>
       </c>
       <c r="H234">
-        <v>165.06</v>
+        <v>165.07</v>
       </c>
       <c r="I234">
-        <v>533.04</v>
+        <v>533.08</v>
       </c>
       <c r="J234">
         <v>59.96</v>
       </c>
       <c r="K234">
-        <v>165.06</v>
+        <v>165.07</v>
       </c>
       <c r="L234">
-        <v>509.2</v>
+        <v>509.24</v>
       </c>
       <c r="M234">
-        <v>55.76</v>
+        <v>55.75</v>
       </c>
       <c r="N234" t="s">
         <v>273</v>
@@ -11762,7 +11762,7 @@
         <v>30.47</v>
       </c>
       <c r="I235">
-        <v>177.03</v>
+        <v>177.07</v>
       </c>
       <c r="J235">
         <v>22.28</v>
@@ -11771,7 +11771,7 @@
         <v>30.47</v>
       </c>
       <c r="L235">
-        <v>114.97</v>
+        <v>115</v>
       </c>
       <c r="M235">
         <v>18.91</v>
@@ -12378,7 +12378,7 @@
         <v>9.49</v>
       </c>
       <c r="I249">
-        <v>69.23999999999999</v>
+        <v>69.28</v>
       </c>
       <c r="J249">
         <v>10.2</v>
@@ -12387,7 +12387,7 @@
         <v>9.49</v>
       </c>
       <c r="L249">
-        <v>26.82</v>
+        <v>26.84</v>
       </c>
       <c r="M249">
         <v>7.78</v>
@@ -12419,19 +12419,19 @@
         <v>8</v>
       </c>
       <c r="H250">
-        <v>119.56</v>
+        <v>119.58</v>
       </c>
       <c r="I250">
-        <v>454.8</v>
+        <v>454.9</v>
       </c>
       <c r="J250">
         <v>51.4</v>
       </c>
       <c r="K250">
-        <v>119.56</v>
+        <v>119.58</v>
       </c>
       <c r="L250">
-        <v>420.04</v>
+        <v>420.16</v>
       </c>
       <c r="M250">
         <v>47.02</v>
@@ -12463,19 +12463,19 @@
         <v>9</v>
       </c>
       <c r="H251">
-        <v>268.3</v>
+        <v>268.31</v>
       </c>
       <c r="I251">
-        <v>651.8</v>
+        <v>651.85</v>
       </c>
       <c r="J251">
-        <v>74.73</v>
+        <v>74.72</v>
       </c>
       <c r="K251">
-        <v>268.3</v>
+        <v>268.31</v>
       </c>
       <c r="L251">
-        <v>632.85</v>
+        <v>632.89</v>
       </c>
       <c r="M251">
         <v>72.55</v>
@@ -12507,19 +12507,19 @@
         <v>10</v>
       </c>
       <c r="H252">
-        <v>395.85</v>
+        <v>395.86</v>
       </c>
       <c r="I252">
-        <v>747.3</v>
+        <v>747.33</v>
       </c>
       <c r="J252">
         <v>88.39</v>
       </c>
       <c r="K252">
-        <v>395.85</v>
+        <v>395.86</v>
       </c>
       <c r="L252">
-        <v>730.48</v>
+        <v>730.5</v>
       </c>
       <c r="M252">
         <v>88.3</v>
@@ -12554,10 +12554,10 @@
         <v>482.93</v>
       </c>
       <c r="I253">
-        <v>795.5700000000001</v>
+        <v>795.59</v>
       </c>
       <c r="J253">
-        <v>96.08</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="K253">
         <v>482.93</v>
@@ -12601,7 +12601,7 @@
         <v>813.0700000000001</v>
       </c>
       <c r="J254">
-        <v>99</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="K254">
         <v>519.29</v>
@@ -12639,16 +12639,16 @@
         <v>13</v>
       </c>
       <c r="H255">
-        <v>500.99</v>
+        <v>500.98</v>
       </c>
       <c r="I255">
         <v>804.51</v>
       </c>
       <c r="J255">
-        <v>97.52</v>
+        <v>97.53</v>
       </c>
       <c r="K255">
-        <v>500.99</v>
+        <v>500.98</v>
       </c>
       <c r="L255">
         <v>777.35</v>
@@ -12698,7 +12698,7 @@
         <v>748.03</v>
       </c>
       <c r="M256">
-        <v>93.23999999999999</v>
+        <v>93.23</v>
       </c>
       <c r="N256" t="s">
         <v>295</v>
@@ -12730,7 +12730,7 @@
         <v>314.34</v>
       </c>
       <c r="I257">
-        <v>690.99</v>
+        <v>690.98</v>
       </c>
       <c r="J257">
         <v>80.05</v>
@@ -12774,19 +12774,19 @@
         <v>169.63</v>
       </c>
       <c r="I258">
-        <v>539.4400000000001</v>
+        <v>539.42</v>
       </c>
       <c r="J258">
         <v>60.71</v>
       </c>
       <c r="K258">
-        <v>169.61</v>
+        <v>169.49</v>
       </c>
       <c r="L258">
-        <v>516.53</v>
+        <v>515.48</v>
       </c>
       <c r="M258">
-        <v>56.48</v>
+        <v>56.54</v>
       </c>
       <c r="N258" t="s">
         <v>297</v>
@@ -12818,19 +12818,19 @@
         <v>32.83</v>
       </c>
       <c r="I259">
-        <v>187.1</v>
+        <v>187.08</v>
       </c>
       <c r="J259">
         <v>23.24</v>
       </c>
       <c r="K259">
-        <v>32.81</v>
+        <v>32.6</v>
       </c>
       <c r="L259">
-        <v>122.06</v>
+        <v>120.12</v>
       </c>
       <c r="M259">
-        <v>20.08</v>
+        <v>20.05</v>
       </c>
       <c r="N259" t="s">
         <v>298</v>
